--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC74C8-EF75-4D4A-8569-BA6E19BDA619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243350A5-124C-5A42-A76E-718C38CAFA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="3440" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>Metadata</t>
   </si>
@@ -314,6 +314,78 @@
   <si>
     <t>Col5</t>
   </si>
+  <si>
+    <t>Zr12 Mo23 Ta25 W40</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>Zr19 Mo41 Ta20 W20</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>Zr11 Mo11 Ta25 W53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F6C </t>
+  </si>
+  <si>
+    <t>Zr21 Mo25 Ta25 W29</t>
+  </si>
+  <si>
+    <t>Zr18 Mo18 Ta36 W28</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Zr29 Mo27 Ta26 W18</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>nanohardness</t>
+  </si>
+  <si>
+    <t>I5 sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>D11 sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>E8 sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>F6C sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>C5 sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>E4 sample ID; magnetron sputtering deposition with Ar at 0.4Pa; 10nm grain size</t>
+  </si>
+  <si>
+    <t>reduced elastic modulus</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ma15238546 </t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +394,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +479,18 @@
       <name val="Calibri (Body)"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -917,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1070,6 +1154,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1121,72 +1271,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1544,19 +1629,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="77"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,17 +1652,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="81"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,43 +1691,43 @@
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="74" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1653,19 +1738,19 @@
       <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="53"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="75"/>
     </row>
     <row r="7" spans="1:20" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -1710,7 +1795,7 @@
       <c r="N7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="54"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
@@ -1723,37 +1808,37 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="64"/>
+      <c r="N8" s="86"/>
       <c r="O8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68"/>
-    </row>
-    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="90"/>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
@@ -1814,205 +1899,517 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="9"/>
+      <c r="I10" s="43">
+        <v>298</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12250000000</v>
+      </c>
+      <c r="K10" s="4">
+        <v>750000000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="9"/>
+      <c r="I11" s="43">
+        <v>298</v>
+      </c>
+      <c r="J11" s="4">
+        <v>19920000000</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="9"/>
+      <c r="I12" s="43">
+        <v>298</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10360000000</v>
+      </c>
+      <c r="K12" s="4">
+        <v>750000000</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="9"/>
+      <c r="I13" s="43">
+        <v>298</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10810000000</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="9"/>
+      <c r="I14" s="43">
+        <v>298</v>
+      </c>
+      <c r="J14" s="4">
+        <v>8280000000</v>
+      </c>
+      <c r="K14" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="9"/>
+      <c r="I15" s="43">
+        <v>298</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7560000000</v>
+      </c>
+      <c r="K15" s="4">
+        <v>750000000</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="9"/>
+      <c r="I16" s="43">
+        <v>298</v>
+      </c>
+      <c r="J16" s="4">
+        <v>267600000000</v>
+      </c>
+      <c r="K16" s="4">
+        <v>15000000000</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="9"/>
+      <c r="I17" s="43">
+        <v>298</v>
+      </c>
+      <c r="J17" s="4">
+        <v>302700000000</v>
+      </c>
+      <c r="K17" s="4">
+        <v>25000000000</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="9"/>
+      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="43">
+        <v>298</v>
+      </c>
+      <c r="J18" s="4">
+        <v>215000000000</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10000000000</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="9"/>
+      <c r="A19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="43">
+        <v>298</v>
+      </c>
+      <c r="J19" s="4">
+        <v>201200000000</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5000000000</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="9"/>
+      <c r="A20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="43">
+        <v>298</v>
+      </c>
+      <c r="J20" s="4">
+        <v>182100000000</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5000000000</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="9"/>
+      <c r="A21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="43">
+        <v>298</v>
+      </c>
+      <c r="J21" s="4">
+        <v>140200000000</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5000000000</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
@@ -8216,6 +8613,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -8230,12 +8632,8 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243350A5-124C-5A42-A76E-718C38CAFA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F9587-EEF3-EC4F-98BB-04819D03868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="3440" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="107">
   <si>
     <t>Metadata</t>
   </si>
@@ -385,6 +385,66 @@
   </si>
   <si>
     <t xml:space="preserve">10.3390/ma15238546 </t>
+  </si>
+  <si>
+    <t>CoCrCuFeNi</t>
+  </si>
+  <si>
+    <t>(CoCrCuFeNi)19 Nb5</t>
+  </si>
+  <si>
+    <t>(CoCrCuFeNi)18 Nb10</t>
+  </si>
+  <si>
+    <t>(CoCrCuFeNi)17 Nb15</t>
+  </si>
+  <si>
+    <t>(CoCrCuFeNi)15.4 Nb23</t>
+  </si>
+  <si>
+    <t>NB000</t>
+  </si>
+  <si>
+    <t>NB005</t>
+  </si>
+  <si>
+    <t>NB010</t>
+  </si>
+  <si>
+    <t>NB015</t>
+  </si>
+  <si>
+    <t>NB023</t>
+  </si>
+  <si>
+    <t>NB000; deposited by magnetron sputtering coldpressed powder targets; p*d=2.8 Pa cm</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FCC+amorphous</t>
+  </si>
+  <si>
+    <t>amorphous</t>
+  </si>
+  <si>
+    <t>NB005; deposited by magnetron sputtering coldpressed powder targets; p*d=2.8 Pa cm</t>
+  </si>
+  <si>
+    <t>NB010; deposited by magnetron sputtering coldpressed powder targets; p*d=2.8 Pa cm</t>
+  </si>
+  <si>
+    <t>NB015; deposited by magnetron sputtering coldpressed powder targets; p*d=2.8 Pa cm</t>
+  </si>
+  <si>
+    <t>NB023; deposited by magnetron sputtering coldpressed powder targets; p*d=2.8 Pa cm</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2015.06.097</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1639,8 @@
   </sheetPr>
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2412,11 +2472,21 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="42"/>
@@ -2424,15 +2494,29 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="42"/>
@@ -2440,15 +2524,29 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="42"/>
@@ -2456,15 +2554,29 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="42"/>
@@ -2472,15 +2584,29 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="9"/>
+      <c r="M25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="42"/>
@@ -2488,8 +2614,12 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="9"/>
+      <c r="M26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>

--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F9587-EEF3-EC4F-98BB-04819D03868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255B4B4-A6D4-4D4F-AAD8-A15E17DA59CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3440" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="1580" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="142">
   <si>
     <t>Metadata</t>
   </si>
@@ -445,6 +445,111 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2015.06.097</t>
+  </si>
+  <si>
+    <t>Al20Cr5Fe50Mn20Ti5</t>
+  </si>
+  <si>
+    <t>Al25Cr5Fe50Mn15Ti5</t>
+  </si>
+  <si>
+    <t>Al35Cr5Fe40Mn10Ti10</t>
+  </si>
+  <si>
+    <t>Al30Cr10Fe35Mn15Ti10</t>
+  </si>
+  <si>
+    <t>Al30Cr5Fe40Mn15Ti10</t>
+  </si>
+  <si>
+    <t>Al30Cr5Fe45Mn10Ti10</t>
+  </si>
+  <si>
+    <t>Al30Cr5Fe50Mn10Ti5</t>
+  </si>
+  <si>
+    <t>Al15Cr5Fe50Mn25Ti5</t>
+  </si>
+  <si>
+    <t>Alloy 1</t>
+  </si>
+  <si>
+    <t>Alloy 2</t>
+  </si>
+  <si>
+    <t>Alloy 3</t>
+  </si>
+  <si>
+    <t>Alloy 4</t>
+  </si>
+  <si>
+    <t>Alloy 5</t>
+  </si>
+  <si>
+    <t>Alloy 6</t>
+  </si>
+  <si>
+    <t>Alloy 7</t>
+  </si>
+  <si>
+    <t>Alloy 8</t>
+  </si>
+  <si>
+    <t>BCC+L21</t>
+  </si>
+  <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>compressive yield stress</t>
+  </si>
+  <si>
+    <t>compressive fracture stress</t>
+  </si>
+  <si>
+    <t>compressive ductility</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>strain rate of 2e−4/s</t>
+  </si>
+  <si>
+    <t>UCS</t>
+  </si>
+  <si>
+    <t>VAM+H</t>
+  </si>
+  <si>
+    <t>homogenized at 1473K for 30min</t>
+  </si>
+  <si>
+    <t>homogenized at 1473K for 30min; annealed at 973K for 20h</t>
+  </si>
+  <si>
+    <t>VAM+H+A</t>
+  </si>
+  <si>
+    <t>SF12a</t>
+  </si>
+  <si>
+    <t>SF12b</t>
+  </si>
+  <si>
+    <t>minimum compressive ductility</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-021-24523-9</t>
   </si>
 </sst>
 </file>
@@ -1214,6 +1319,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1280,58 +1437,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,10 +1742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1689,19 +1794,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,17 +1817,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="64"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="82"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1751,43 +1856,43 @@
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1798,19 +1903,19 @@
       <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="75"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:20" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -1855,7 +1960,7 @@
       <c r="N7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="76"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
@@ -1868,35 +1973,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="86"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="87" t="s">
+      <c r="P8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="90"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -1962,7 +2067,7 @@
       <c r="A10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2005,7 +2110,7 @@
       <c r="A11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2048,7 +2153,7 @@
       <c r="A12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2091,7 +2196,7 @@
       <c r="A13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2134,7 +2239,7 @@
       <c r="A14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2177,7 +2282,7 @@
       <c r="A15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2220,7 +2325,7 @@
       <c r="A16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2263,7 +2368,7 @@
       <c r="A17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2307,7 +2412,7 @@
       <c r="A18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2349,7 +2454,7 @@
       <c r="A19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2391,7 +2496,7 @@
       <c r="A20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2433,7 +2538,7 @@
       <c r="A21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2622,1396 +2727,3452 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="9"/>
+      <c r="H27" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="3">
+        <v>298</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1374000000</v>
+      </c>
+      <c r="K27" s="4">
+        <v>23000000</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="9"/>
+      <c r="H28" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="3">
+        <v>298</v>
+      </c>
+      <c r="J28" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="K28" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E29" s="44"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="9"/>
+      <c r="H29" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="3">
+        <v>298</v>
+      </c>
+      <c r="J29" s="4">
+        <v>800000000</v>
+      </c>
+      <c r="K29" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E30" s="44"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="H30" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="3">
+        <v>298</v>
+      </c>
+      <c r="J30" s="4">
+        <v>754000000</v>
+      </c>
+      <c r="K30" s="4">
+        <v>32000000</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="H31" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="3">
+        <v>298</v>
+      </c>
+      <c r="J31" s="4">
+        <v>597000000</v>
+      </c>
+      <c r="K31" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="H32" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="3">
+        <v>298</v>
+      </c>
+      <c r="J32" s="4">
+        <v>503000000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="H33" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="3">
+        <v>298</v>
+      </c>
+      <c r="J33" s="4">
+        <v>514000000</v>
+      </c>
+      <c r="K33" s="4">
+        <v>19000000</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="H34" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="3">
+        <v>298</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1642000000</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E35" s="44"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="H35" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="3">
+        <v>298</v>
+      </c>
+      <c r="J35" s="4">
+        <v>2666000000</v>
+      </c>
+      <c r="K35" s="4">
+        <v>86000000</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="H36" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="3">
+        <v>298</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2385000000</v>
+      </c>
+      <c r="K36" s="4">
+        <v>48000000</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="H37" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="3">
+        <v>298</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1170000000</v>
+      </c>
+      <c r="K37" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="H38" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="3">
+        <v>298</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1194000000</v>
+      </c>
+      <c r="K38" s="4">
+        <v>153000000</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="A39" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E39" s="44"/>
-      <c r="F39" s="42"/>
+      <c r="F39" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="H39" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="3">
+        <v>298</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1564000000</v>
+      </c>
+      <c r="K39" s="4">
+        <v>85000000</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="A40" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E40" s="44"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="H40" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" s="3">
+        <v>298</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1516000000</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="A41" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E41" s="44"/>
-      <c r="F41" s="42"/>
+      <c r="F41" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="H41" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="3">
+        <v>298</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1718000000</v>
+      </c>
+      <c r="K41" s="4">
+        <v>149000000</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="A42" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E42" s="44"/>
-      <c r="F42" s="42"/>
+      <c r="F42" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
+      <c r="H42" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="3">
+        <v>298</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2480000000</v>
+      </c>
+      <c r="K42" s="4">
+        <v>111000000</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="A43" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E43" s="44"/>
-      <c r="F43" s="42"/>
+      <c r="F43" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
+      <c r="H43" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="3">
+        <v>298</v>
+      </c>
+      <c r="J43" s="4">
+        <v>28</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
+      <c r="A44" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E44" s="44"/>
-      <c r="F44" s="42"/>
+      <c r="F44" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
+      <c r="H44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="3">
+        <v>298</v>
+      </c>
+      <c r="J44" s="4">
+        <v>27</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="A45" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E45" s="44"/>
-      <c r="F45" s="42"/>
+      <c r="F45" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
+      <c r="H45" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="3">
+        <v>298</v>
+      </c>
+      <c r="J45" s="4">
+        <v>8</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E46" s="44"/>
-      <c r="F46" s="42"/>
+      <c r="F46" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
+      <c r="H46" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="3">
+        <v>298</v>
+      </c>
+      <c r="J46" s="4">
+        <v>8</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="A47" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E47" s="44"/>
-      <c r="F47" s="42"/>
+      <c r="F47" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
+      <c r="H47" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="3">
+        <v>298</v>
+      </c>
+      <c r="J47" s="4">
+        <v>13</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="A48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E48" s="44"/>
-      <c r="F48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
+      <c r="H48" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="3">
+        <v>298</v>
+      </c>
+      <c r="J48" s="4">
+        <v>13</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="A49" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E49" s="44"/>
-      <c r="F49" s="42"/>
+      <c r="F49" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
+      <c r="H49" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="3">
+        <v>298</v>
+      </c>
+      <c r="J49" s="4">
+        <v>16</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E50" s="44"/>
-      <c r="F50" s="42"/>
+      <c r="F50" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
+      <c r="H50" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="3">
+        <v>298</v>
+      </c>
+      <c r="J50" s="4">
+        <v>29</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="42"/>
+      <c r="A51" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
+      <c r="H51" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="3">
+        <v>298</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1798000000</v>
+      </c>
+      <c r="K51" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="42"/>
+      <c r="A52" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
+      <c r="H52" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="3">
+        <v>298</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1424000000</v>
+      </c>
+      <c r="K52" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L52" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="42"/>
+      <c r="A53" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
+      <c r="H53" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="3">
+        <v>298</v>
+      </c>
+      <c r="J53" s="4">
+        <v>813000000</v>
+      </c>
+      <c r="K53" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L53" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="42"/>
+      <c r="A54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
+      <c r="H54" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I54" s="3">
+        <v>298</v>
+      </c>
+      <c r="J54" s="4">
+        <v>651000000</v>
+      </c>
+      <c r="K54" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L54" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="42"/>
+      <c r="A55" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
+      <c r="H55" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" s="3">
+        <v>298</v>
+      </c>
+      <c r="J55" s="4">
+        <v>885000000</v>
+      </c>
+      <c r="K55" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L55" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="42"/>
+      <c r="A56" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
+      <c r="H56" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="3">
+        <v>298</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1006000000</v>
+      </c>
+      <c r="K56" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L56" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="42"/>
+      <c r="A57" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
+      <c r="H57" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="3">
+        <v>298</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1360000000</v>
+      </c>
+      <c r="K57" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="L57" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="42"/>
+      <c r="A58" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
+      <c r="H58" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="3">
+        <v>298</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1743000000</v>
+      </c>
       <c r="K58" s="4"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
+      <c r="L58" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="42"/>
+      <c r="A59" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
+      <c r="H59" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="3">
+        <v>298</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1383000000</v>
+      </c>
       <c r="K59" s="4"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
+      <c r="L59" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="42"/>
+      <c r="A60" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
+      <c r="H60" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="3">
+        <v>298</v>
+      </c>
+      <c r="J60" s="4">
+        <v>738000000</v>
+      </c>
       <c r="K60" s="4"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
+      <c r="L60" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="42"/>
+      <c r="A61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
+      <c r="H61" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="3">
+        <v>298</v>
+      </c>
+      <c r="J61" s="4">
+        <v>527000000</v>
+      </c>
       <c r="K61" s="4"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
+      <c r="L61" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="42"/>
+      <c r="A62" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
+      <c r="H62" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="3">
+        <v>298</v>
+      </c>
+      <c r="J62" s="4">
+        <v>764000000</v>
+      </c>
       <c r="K62" s="4"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
+      <c r="L62" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="42"/>
+      <c r="A63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
+      <c r="H63" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="3">
+        <v>298</v>
+      </c>
+      <c r="J63" s="4">
+        <v>937000000</v>
+      </c>
       <c r="K63" s="4"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
+      <c r="L63" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="42"/>
+      <c r="A64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
+      <c r="H64" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I64" s="3">
+        <v>298</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1323000000</v>
+      </c>
       <c r="K64" s="4"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="L64" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="42"/>
+      <c r="A65" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
+      <c r="H65" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="3">
+        <v>298</v>
+      </c>
+      <c r="J65" s="4">
+        <v>16.2</v>
+      </c>
       <c r="K65" s="4"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
+      <c r="L65" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M65" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="42"/>
+      <c r="A66" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
+      <c r="H66" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I66" s="3">
+        <v>298</v>
+      </c>
+      <c r="J66" s="4">
+        <v>15.2</v>
+      </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
+      <c r="L66" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M66" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="42"/>
+      <c r="A67" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
+      <c r="H67" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" s="3">
+        <v>298</v>
+      </c>
+      <c r="J67" s="4">
+        <v>6.2</v>
+      </c>
       <c r="K67" s="4"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
+      <c r="L67" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="42"/>
+      <c r="A68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
+      <c r="H68" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I68" s="3">
+        <v>298</v>
+      </c>
+      <c r="J68" s="4">
+        <v>4.3</v>
+      </c>
       <c r="K68" s="4"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
+      <c r="L68" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M68" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="42"/>
+      <c r="A69" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
+      <c r="H69" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="3">
+        <v>298</v>
+      </c>
+      <c r="J69" s="4">
+        <v>7.8</v>
+      </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
+      <c r="L69" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M69" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="42"/>
+      <c r="A70" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="4"/>
+      <c r="H70" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="3">
+        <v>298</v>
+      </c>
+      <c r="J70" s="4">
+        <v>11.4</v>
+      </c>
       <c r="K70" s="4"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
+      <c r="L70" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M70" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="42"/>
+      <c r="A71" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
+      <c r="H71" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71" s="3">
+        <v>298</v>
+      </c>
+      <c r="J71" s="4">
+        <v>14.8</v>
+      </c>
       <c r="K71" s="4"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
+      <c r="L71" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M71" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="42"/>
+      <c r="A72" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
+      <c r="H72" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="3">
+        <v>298</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1465000000</v>
+      </c>
       <c r="K72" s="4"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
+      <c r="L72" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="42"/>
+      <c r="A73" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="4"/>
+      <c r="H73" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" s="3">
+        <v>298</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1321000000</v>
+      </c>
       <c r="K73" s="4"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
+      <c r="L73" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="42"/>
+      <c r="A74" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="4"/>
+      <c r="H74" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I74" s="3">
+        <v>298</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1330000000</v>
+      </c>
       <c r="K74" s="4"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
+      <c r="L74" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="42"/>
+      <c r="A75" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="4"/>
+      <c r="H75" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="3">
+        <v>298</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1319000000</v>
+      </c>
       <c r="K75" s="4"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
+      <c r="L75" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="42"/>
+      <c r="A76" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="4"/>
+      <c r="H76" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="3">
+        <v>298</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1211000000</v>
+      </c>
       <c r="K76" s="4"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
+      <c r="L76" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="42"/>
+      <c r="A77" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="4"/>
+      <c r="H77" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="3">
+        <v>298</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1212000000</v>
+      </c>
       <c r="K77" s="4"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
+      <c r="L77" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="42"/>
+      <c r="A78" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="4"/>
+      <c r="H78" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" s="3">
+        <v>298</v>
+      </c>
+      <c r="J78" s="4">
+        <v>17.100000000000001</v>
+      </c>
       <c r="K78" s="4"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
+      <c r="L78" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M78" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="42"/>
+      <c r="A79" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="4"/>
+      <c r="H79" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" s="3">
+        <v>298</v>
+      </c>
+      <c r="J79" s="4">
+        <v>16</v>
+      </c>
       <c r="K79" s="4"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
+      <c r="L79" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M79" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="42"/>
+      <c r="A80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
+      <c r="H80" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" s="3">
+        <v>298</v>
+      </c>
+      <c r="J80" s="4">
+        <v>14.9</v>
+      </c>
       <c r="K80" s="4"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
+      <c r="L80" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M80" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
+      <c r="A81" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E81" s="44"/>
-      <c r="F81" s="42"/>
+      <c r="F81" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
+      <c r="H81" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81" s="3">
+        <v>573</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1162000000</v>
+      </c>
+      <c r="K81" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="L81" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M81" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
+      <c r="A82" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E82" s="44"/>
-      <c r="F82" s="42"/>
+      <c r="F82" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
+      <c r="H82" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" s="3">
+        <v>573</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1517000000</v>
+      </c>
+      <c r="K82" s="4">
+        <v>22000000</v>
+      </c>
+      <c r="L82" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M82" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="A83" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E83" s="44"/>
-      <c r="F83" s="42"/>
+      <c r="F83" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
+      <c r="H83" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="3">
+        <v>773</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1154000000</v>
+      </c>
+      <c r="K83" s="4">
+        <v>13000000</v>
+      </c>
+      <c r="L83" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M83" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
+      <c r="A84" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E84" s="44"/>
-      <c r="F84" s="42"/>
+      <c r="F84" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
+      <c r="H84" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="3">
+        <v>773</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1461000000</v>
+      </c>
+      <c r="K84" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="L84" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
+      <c r="A85" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E85" s="44"/>
-      <c r="F85" s="42"/>
+      <c r="F85" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
+      <c r="H85" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" s="3">
+        <v>873</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1072000000</v>
+      </c>
+      <c r="K85" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="L85" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
+      <c r="A86" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E86" s="44"/>
-      <c r="F86" s="42"/>
+      <c r="F86" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
+      <c r="H86" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="3">
+        <v>873</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1032000000</v>
+      </c>
+      <c r="K86" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="L86" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
+      <c r="A87" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E87" s="44"/>
-      <c r="F87" s="42"/>
+      <c r="F87" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
+      <c r="H87" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I87" s="3">
+        <v>973</v>
+      </c>
+      <c r="J87" s="4">
+        <v>607000000</v>
+      </c>
+      <c r="K87" s="4">
+        <v>22000000</v>
+      </c>
+      <c r="L87" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
+      <c r="A88" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E88" s="44"/>
-      <c r="F88" s="42"/>
+      <c r="F88" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
+      <c r="H88" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I88" s="3">
+        <v>973</v>
+      </c>
+      <c r="J88" s="4">
+        <v>643000000</v>
+      </c>
+      <c r="K88" s="4">
+        <v>16000000</v>
+      </c>
+      <c r="L88" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
+      <c r="A89" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E89" s="44"/>
-      <c r="F89" s="42"/>
+      <c r="F89" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
+      <c r="H89" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J89" s="4">
+        <v>131000000</v>
+      </c>
+      <c r="K89" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="L89" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
+      <c r="A90" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E90" s="44"/>
-      <c r="F90" s="42"/>
+      <c r="F90" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
+      <c r="H90" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J90" s="4">
+        <v>176000000</v>
+      </c>
+      <c r="K90" s="4">
+        <v>17000000</v>
+      </c>
+      <c r="L90" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
+      <c r="A91" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E91" s="44"/>
-      <c r="F91" s="42"/>
+      <c r="F91" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="4"/>
+      <c r="H91" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" s="3">
+        <v>573</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2126000000</v>
+      </c>
       <c r="K91" s="4"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
+      <c r="L91" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
+      <c r="A92" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E92" s="44"/>
-      <c r="F92" s="42"/>
+      <c r="F92" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="4"/>
+      <c r="H92" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I92" s="3">
+        <v>573</v>
+      </c>
+      <c r="J92" s="50">
+        <v>1978000000</v>
+      </c>
       <c r="K92" s="4"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
+      <c r="L92" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
+      <c r="A93" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E93" s="44"/>
-      <c r="F93" s="42"/>
+      <c r="F93" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="4"/>
+      <c r="H93" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I93" s="3">
+        <v>773</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1791000000</v>
+      </c>
       <c r="K93" s="4"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
+      <c r="L93" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M93" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
+      <c r="A94" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E94" s="44"/>
-      <c r="F94" s="42"/>
+      <c r="F94" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="4"/>
+      <c r="H94" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I94" s="3">
+        <v>773</v>
+      </c>
+      <c r="J94" s="50">
+        <v>1729000000</v>
+      </c>
       <c r="K94" s="4"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
+      <c r="L94" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M94" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
+      <c r="A95" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E95" s="44"/>
-      <c r="F95" s="42"/>
+      <c r="F95" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="4"/>
+      <c r="H95" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" s="3">
+        <v>873</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1192000000</v>
+      </c>
       <c r="K95" s="4"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
+      <c r="L95" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M95" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
+      <c r="A96" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E96" s="44"/>
-      <c r="F96" s="42"/>
+      <c r="F96" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="4"/>
+      <c r="H96" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I96" s="3">
+        <v>873</v>
+      </c>
+      <c r="J96" s="50">
+        <v>1036000000</v>
+      </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
+      <c r="L96" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="97" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
+      <c r="A97" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E97" s="44"/>
-      <c r="F97" s="42"/>
+      <c r="F97" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="4"/>
+      <c r="H97" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I97" s="3">
+        <v>973</v>
+      </c>
+      <c r="J97" s="4">
+        <v>576000000</v>
+      </c>
       <c r="K97" s="4"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="44"/>
+      <c r="L97" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
+      <c r="A98" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E98" s="44"/>
-      <c r="F98" s="42"/>
+      <c r="F98" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="4"/>
+      <c r="H98" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I98" s="3">
+        <v>973</v>
+      </c>
+      <c r="J98" s="50">
+        <v>647000000</v>
+      </c>
       <c r="K98" s="4"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="44"/>
-      <c r="N98" s="44"/>
+      <c r="L98" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M98" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
+      <c r="A99" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E99" s="44"/>
-      <c r="F99" s="42"/>
+      <c r="F99" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="4"/>
+      <c r="H99" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J99" s="4">
+        <v>117000000</v>
+      </c>
       <c r="K99" s="4"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
+      <c r="L99" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M99" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
+      <c r="A100" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E100" s="44"/>
-      <c r="F100" s="42"/>
+      <c r="F100" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="4"/>
+      <c r="H100" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J100" s="4">
+        <v>179000000</v>
+      </c>
       <c r="K100" s="4"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="44"/>
+      <c r="L100" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="101" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
+      <c r="A101" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E101" s="44"/>
-      <c r="F101" s="42"/>
+      <c r="F101" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="4"/>
+      <c r="H101" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I101" s="3">
+        <v>573</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2025000000</v>
+      </c>
       <c r="K101" s="4"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="44"/>
-      <c r="N101" s="44"/>
+      <c r="L101" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M101" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="102" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
+      <c r="A102" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E102" s="44"/>
-      <c r="F102" s="42"/>
+      <c r="F102" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="4"/>
+      <c r="H102" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I102" s="3">
+        <v>573</v>
+      </c>
+      <c r="J102" s="50">
+        <v>1745000000</v>
+      </c>
       <c r="K102" s="4"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="44"/>
+      <c r="L102" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
+      <c r="A103" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E103" s="44"/>
-      <c r="F103" s="42"/>
+      <c r="F103" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="4"/>
+      <c r="H103" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I103" s="3">
+        <v>773</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1558000000</v>
+      </c>
       <c r="K103" s="4"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44"/>
+      <c r="L103" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M103" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
+      <c r="A104" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E104" s="44"/>
-      <c r="F104" s="42"/>
+      <c r="F104" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="4"/>
+      <c r="H104" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I104" s="3">
+        <v>573</v>
+      </c>
+      <c r="J104" s="50">
+        <v>25.3</v>
+      </c>
       <c r="K104" s="4"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
+      <c r="L104" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M104" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
+      <c r="A105" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E105" s="44"/>
-      <c r="F105" s="42"/>
+      <c r="F105" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="4"/>
+      <c r="H105" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I105" s="3">
+        <v>573</v>
+      </c>
+      <c r="J105" s="4">
+        <v>25.2</v>
+      </c>
       <c r="K105" s="4"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
+      <c r="L105" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M105" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="106" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
+      <c r="A106" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E106" s="44"/>
-      <c r="F106" s="42"/>
+      <c r="F106" s="42" t="s">
+        <v>127</v>
+      </c>
       <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="4"/>
+      <c r="H106" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I106" s="3">
+        <v>773</v>
+      </c>
+      <c r="J106" s="50">
+        <v>30.1</v>
+      </c>
       <c r="K106" s="4"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44"/>
+      <c r="L106" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M106" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="107" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
+      <c r="A107" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E107" s="44"/>
-      <c r="F107" s="42"/>
+      <c r="F107" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="4"/>
+      <c r="H107" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I107" s="3">
+        <v>773</v>
+      </c>
+      <c r="J107" s="4">
+        <v>40</v>
+      </c>
       <c r="K107" s="4"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
+      <c r="L107" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M107" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="108" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
+      <c r="A108" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E108" s="44"/>
-      <c r="F108" s="42"/>
+      <c r="F108" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="4"/>
+      <c r="H108" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I108" s="3">
+        <v>873</v>
+      </c>
+      <c r="J108" s="4">
+        <v>40</v>
+      </c>
       <c r="K108" s="4"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="44"/>
+      <c r="L108" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M108" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
+      <c r="A109" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E109" s="44"/>
-      <c r="F109" s="42"/>
+      <c r="F109" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="4"/>
+      <c r="H109" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" s="3">
+        <v>873</v>
+      </c>
+      <c r="J109" s="4">
+        <v>40</v>
+      </c>
       <c r="K109" s="4"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
+      <c r="L109" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M109" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="110" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
+      <c r="A110" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E110" s="44"/>
-      <c r="F110" s="42"/>
+      <c r="F110" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="4"/>
+      <c r="H110" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I110" s="3">
+        <v>973</v>
+      </c>
+      <c r="J110" s="4">
+        <v>40</v>
+      </c>
       <c r="K110" s="4"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
+      <c r="L110" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M110" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="111" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
+      <c r="A111" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E111" s="44"/>
-      <c r="F111" s="42"/>
+      <c r="F111" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="4"/>
+      <c r="H111" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I111" s="3">
+        <v>973</v>
+      </c>
+      <c r="J111" s="4">
+        <v>40</v>
+      </c>
       <c r="K111" s="4"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
+      <c r="L111" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M111" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="112" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
+      <c r="A112" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E112" s="44"/>
-      <c r="F112" s="42"/>
+      <c r="F112" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="4"/>
+      <c r="H112" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J112" s="4">
+        <v>40</v>
+      </c>
       <c r="K112" s="4"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44"/>
+      <c r="L112" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M112" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
+      <c r="A113" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E113" s="44"/>
-      <c r="F113" s="42"/>
+      <c r="F113" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="4"/>
+      <c r="H113" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J113" s="4">
+        <v>40</v>
+      </c>
       <c r="K113" s="4"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
+      <c r="L113" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M113" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="114" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="24"/>
@@ -6303,13 +8464,11 @@
     </row>
     <row r="257" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
-      <c r="B257" s="44"/>
-      <c r="C257" s="42"/>
-      <c r="D257" s="42"/>
-      <c r="E257" s="44"/>
-      <c r="F257" s="42"/>
-      <c r="G257" s="42"/>
-      <c r="H257" s="42"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
       <c r="I257" s="3"/>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
@@ -6319,13 +8478,11 @@
     </row>
     <row r="258" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="24"/>
-      <c r="B258" s="44"/>
-      <c r="C258" s="42"/>
-      <c r="D258" s="42"/>
-      <c r="E258" s="44"/>
-      <c r="F258" s="42"/>
-      <c r="G258" s="42"/>
-      <c r="H258" s="42"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
       <c r="I258" s="3"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
@@ -6964,7 +9121,7 @@
       <c r="N303" s="44"/>
     </row>
     <row r="304" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="24"/>
+      <c r="A304" s="44"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="F304" s="2"/>
@@ -6978,7 +9135,7 @@
       <c r="N304" s="44"/>
     </row>
     <row r="305" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="24"/>
+      <c r="A305" s="44"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="F305" s="2"/>
@@ -8713,41 +10870,8 @@
       <c r="M428" s="44"/>
       <c r="N428" s="44"/>
     </row>
-    <row r="429" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="44"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="3"/>
-      <c r="J429" s="4"/>
-      <c r="K429" s="4"/>
-      <c r="L429" s="44"/>
-      <c r="M429" s="44"/>
-      <c r="N429" s="44"/>
-    </row>
-    <row r="430" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="44"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="3"/>
-      <c r="J430" s="4"/>
-      <c r="K430" s="4"/>
-      <c r="L430" s="44"/>
-      <c r="M430" s="44"/>
-      <c r="N430" s="44"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -8762,6 +10886,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255B4B4-A6D4-4D4F-AAD8-A15E17DA59CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504AB41D-A72A-E044-A904-8142070BBCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="1580" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="142">
   <si>
     <t>Metadata</t>
   </si>
@@ -1744,8 +1744,8 @@
   </sheetPr>
   <dimension ref="A1:T428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2593,7 +2593,9 @@
         <v>97</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="42"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
@@ -2623,7 +2625,9 @@
         <v>101</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="42"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
@@ -2653,7 +2657,9 @@
         <v>102</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H24" s="42"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
@@ -2683,7 +2689,9 @@
         <v>103</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="42"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
@@ -2713,7 +2721,9 @@
         <v>104</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="42"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
@@ -2743,7 +2753,9 @@
       <c r="F27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" s="42" t="s">
         <v>131</v>
       </c>
@@ -2783,7 +2795,9 @@
       <c r="F28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="42" t="s">
         <v>131</v>
       </c>
@@ -2823,7 +2837,9 @@
       <c r="F29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" s="42" t="s">
         <v>131</v>
       </c>
@@ -2863,7 +2879,9 @@
       <c r="F30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" s="42" t="s">
         <v>131</v>
       </c>
@@ -2903,7 +2921,9 @@
       <c r="F31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="42" t="s">
         <v>131</v>
       </c>
@@ -2943,7 +2963,9 @@
       <c r="F32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="42" t="s">
         <v>131</v>
       </c>
@@ -2983,7 +3005,9 @@
       <c r="F33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="42" t="s">
         <v>131</v>
       </c>
@@ -3023,7 +3047,9 @@
       <c r="F34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="42" t="s">
         <v>131</v>
       </c>
@@ -3063,7 +3089,9 @@
       <c r="F35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="42" t="s">
         <v>131</v>
       </c>
@@ -3103,7 +3131,9 @@
       <c r="F36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" s="42" t="s">
         <v>131</v>
       </c>
@@ -3143,7 +3173,9 @@
       <c r="F37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" s="42" t="s">
         <v>131</v>
       </c>
@@ -3183,7 +3215,9 @@
       <c r="F38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" s="42" t="s">
         <v>131</v>
       </c>
@@ -3223,7 +3257,9 @@
       <c r="F39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="42"/>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H39" s="42" t="s">
         <v>131</v>
       </c>
@@ -3263,7 +3299,9 @@
       <c r="F40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="42"/>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" s="42" t="s">
         <v>131</v>
       </c>
@@ -3303,7 +3341,9 @@
       <c r="F41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="42"/>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="42" t="s">
         <v>131</v>
       </c>
@@ -3343,7 +3383,9 @@
       <c r="F42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="42"/>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" s="42" t="s">
         <v>131</v>
       </c>
@@ -3383,7 +3425,9 @@
       <c r="F43" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="42"/>
+      <c r="G43" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" s="42" t="s">
         <v>131</v>
       </c>
@@ -3423,7 +3467,9 @@
       <c r="F44" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="42"/>
+      <c r="G44" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="42" t="s">
         <v>131</v>
       </c>
@@ -3463,7 +3509,9 @@
       <c r="F45" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="42"/>
+      <c r="G45" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H45" s="42" t="s">
         <v>131</v>
       </c>
@@ -3503,7 +3551,9 @@
       <c r="F46" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="42"/>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="42" t="s">
         <v>131</v>
       </c>
@@ -3543,7 +3593,9 @@
       <c r="F47" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="42"/>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H47" s="42" t="s">
         <v>131</v>
       </c>
@@ -3583,7 +3635,9 @@
       <c r="F48" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="42"/>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H48" s="42" t="s">
         <v>131</v>
       </c>
@@ -3623,7 +3677,9 @@
       <c r="F49" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="42"/>
+      <c r="G49" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H49" s="42" t="s">
         <v>131</v>
       </c>
@@ -3663,7 +3719,9 @@
       <c r="F50" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="42"/>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H50" s="42" t="s">
         <v>131</v>
       </c>
@@ -3705,7 +3763,9 @@
       <c r="F51" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="42"/>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="42" t="s">
         <v>131</v>
       </c>
@@ -3747,7 +3807,9 @@
       <c r="F52" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="42"/>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H52" s="42" t="s">
         <v>131</v>
       </c>
@@ -3789,7 +3851,9 @@
       <c r="F53" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="42"/>
+      <c r="G53" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" s="42" t="s">
         <v>131</v>
       </c>
@@ -3831,7 +3895,9 @@
       <c r="F54" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="42"/>
+      <c r="G54" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H54" s="42" t="s">
         <v>131</v>
       </c>
@@ -3873,7 +3939,9 @@
       <c r="F55" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G55" s="42"/>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H55" s="42" t="s">
         <v>131</v>
       </c>
@@ -3915,7 +3983,9 @@
       <c r="F56" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G56" s="42"/>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="42" t="s">
         <v>131</v>
       </c>
@@ -3957,7 +4027,9 @@
       <c r="F57" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G57" s="42"/>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="42" t="s">
         <v>131</v>
       </c>
@@ -3999,7 +4071,9 @@
       <c r="F58" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="42"/>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H58" s="42" t="s">
         <v>131</v>
       </c>
@@ -4039,7 +4113,9 @@
       <c r="F59" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="42"/>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="42" t="s">
         <v>131</v>
       </c>
@@ -4079,7 +4155,9 @@
       <c r="F60" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G60" s="42"/>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H60" s="42" t="s">
         <v>131</v>
       </c>
@@ -4119,7 +4197,9 @@
       <c r="F61" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="42"/>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H61" s="42" t="s">
         <v>131</v>
       </c>
@@ -4159,7 +4239,9 @@
       <c r="F62" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="42"/>
+      <c r="G62" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="42" t="s">
         <v>131</v>
       </c>
@@ -4199,7 +4281,9 @@
       <c r="F63" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="42"/>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H63" s="42" t="s">
         <v>131</v>
       </c>
@@ -4239,7 +4323,9 @@
       <c r="F64" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="42"/>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H64" s="42" t="s">
         <v>131</v>
       </c>
@@ -4279,7 +4365,9 @@
       <c r="F65" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G65" s="42"/>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H65" s="42" t="s">
         <v>131</v>
       </c>
@@ -4319,7 +4407,9 @@
       <c r="F66" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G66" s="42"/>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H66" s="42" t="s">
         <v>131</v>
       </c>
@@ -4359,7 +4449,9 @@
       <c r="F67" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="42"/>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H67" s="42" t="s">
         <v>131</v>
       </c>
@@ -4399,7 +4491,9 @@
       <c r="F68" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="42"/>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H68" s="42" t="s">
         <v>131</v>
       </c>
@@ -4439,7 +4533,9 @@
       <c r="F69" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G69" s="42"/>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H69" s="42" t="s">
         <v>131</v>
       </c>
@@ -4479,7 +4575,9 @@
       <c r="F70" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G70" s="42"/>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H70" s="42" t="s">
         <v>131</v>
       </c>
@@ -4519,7 +4617,9 @@
       <c r="F71" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G71" s="42"/>
+      <c r="G71" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H71" s="42" t="s">
         <v>131</v>
       </c>
@@ -4559,7 +4659,9 @@
       <c r="F72" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="42"/>
+      <c r="G72" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H72" s="42" t="s">
         <v>131</v>
       </c>
@@ -4599,7 +4701,9 @@
       <c r="F73" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="42"/>
+      <c r="G73" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H73" s="42" t="s">
         <v>131</v>
       </c>
@@ -4639,7 +4743,9 @@
       <c r="F74" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="42"/>
+      <c r="G74" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H74" s="42" t="s">
         <v>131</v>
       </c>
@@ -4679,7 +4785,9 @@
       <c r="F75" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="42"/>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H75" s="42" t="s">
         <v>131</v>
       </c>
@@ -4719,7 +4827,9 @@
       <c r="F76" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G76" s="42"/>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H76" s="42" t="s">
         <v>131</v>
       </c>
@@ -4759,7 +4869,9 @@
       <c r="F77" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G77" s="42"/>
+      <c r="G77" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H77" s="42" t="s">
         <v>131</v>
       </c>
@@ -4799,7 +4911,9 @@
       <c r="F78" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G78" s="42"/>
+      <c r="G78" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H78" s="42" t="s">
         <v>131</v>
       </c>
@@ -4839,7 +4953,9 @@
       <c r="F79" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G79" s="42"/>
+      <c r="G79" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H79" s="42" t="s">
         <v>131</v>
       </c>
@@ -4879,7 +4995,9 @@
       <c r="F80" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G80" s="42"/>
+      <c r="G80" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H80" s="42" t="s">
         <v>131</v>
       </c>
@@ -4917,7 +5035,9 @@
       <c r="F81" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G81" s="42"/>
+      <c r="G81" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H81" s="42" t="s">
         <v>131</v>
       </c>
@@ -4957,7 +5077,9 @@
       <c r="F82" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G82" s="42"/>
+      <c r="G82" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H82" s="42" t="s">
         <v>131</v>
       </c>
@@ -4997,7 +5119,9 @@
       <c r="F83" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="42"/>
+      <c r="G83" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H83" s="42" t="s">
         <v>131</v>
       </c>
@@ -5037,7 +5161,9 @@
       <c r="F84" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G84" s="42"/>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H84" s="42" t="s">
         <v>131</v>
       </c>
@@ -5077,7 +5203,9 @@
       <c r="F85" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G85" s="42"/>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H85" s="42" t="s">
         <v>131</v>
       </c>
@@ -5117,7 +5245,9 @@
       <c r="F86" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G86" s="42"/>
+      <c r="G86" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H86" s="42" t="s">
         <v>131</v>
       </c>
@@ -5157,7 +5287,9 @@
       <c r="F87" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="42"/>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H87" s="42" t="s">
         <v>131</v>
       </c>
@@ -5197,7 +5329,9 @@
       <c r="F88" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="42"/>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H88" s="42" t="s">
         <v>131</v>
       </c>
@@ -5237,7 +5371,9 @@
       <c r="F89" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G89" s="42"/>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H89" s="42" t="s">
         <v>131</v>
       </c>
@@ -5277,7 +5413,9 @@
       <c r="F90" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G90" s="42"/>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H90" s="42" t="s">
         <v>131</v>
       </c>
@@ -5317,7 +5455,9 @@
       <c r="F91" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G91" s="42"/>
+      <c r="G91" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H91" s="42" t="s">
         <v>131</v>
       </c>
@@ -5355,7 +5495,9 @@
       <c r="F92" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G92" s="42"/>
+      <c r="G92" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H92" s="42" t="s">
         <v>131</v>
       </c>
@@ -5393,7 +5535,9 @@
       <c r="F93" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G93" s="42"/>
+      <c r="G93" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H93" s="42" t="s">
         <v>131</v>
       </c>
@@ -5431,7 +5575,9 @@
       <c r="F94" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G94" s="42"/>
+      <c r="G94" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H94" s="42" t="s">
         <v>131</v>
       </c>
@@ -5469,7 +5615,9 @@
       <c r="F95" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G95" s="42"/>
+      <c r="G95" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H95" s="42" t="s">
         <v>131</v>
       </c>
@@ -5507,7 +5655,9 @@
       <c r="F96" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="42"/>
+      <c r="G96" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H96" s="42" t="s">
         <v>131</v>
       </c>
@@ -5545,7 +5695,9 @@
       <c r="F97" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="42"/>
+      <c r="G97" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H97" s="42" t="s">
         <v>131</v>
       </c>
@@ -5583,7 +5735,9 @@
       <c r="F98" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G98" s="42"/>
+      <c r="G98" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H98" s="42" t="s">
         <v>131</v>
       </c>
@@ -5621,7 +5775,9 @@
       <c r="F99" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G99" s="42"/>
+      <c r="G99" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H99" s="42" t="s">
         <v>131</v>
       </c>
@@ -5659,7 +5815,9 @@
       <c r="F100" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G100" s="42"/>
+      <c r="G100" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H100" s="42" t="s">
         <v>131</v>
       </c>
@@ -5697,7 +5855,9 @@
       <c r="F101" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G101" s="42"/>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H101" s="42" t="s">
         <v>131</v>
       </c>
@@ -5735,7 +5895,9 @@
       <c r="F102" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G102" s="42"/>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H102" s="42" t="s">
         <v>131</v>
       </c>
@@ -5773,7 +5935,9 @@
       <c r="F103" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="42"/>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H103" s="42" t="s">
         <v>131</v>
       </c>
@@ -5811,7 +5975,9 @@
       <c r="F104" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="42"/>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H104" s="42" t="s">
         <v>131</v>
       </c>
@@ -5849,7 +6015,9 @@
       <c r="F105" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="42"/>
+      <c r="G105" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H105" s="42" t="s">
         <v>131</v>
       </c>
@@ -5887,7 +6055,9 @@
       <c r="F106" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G106" s="42"/>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H106" s="42" t="s">
         <v>131</v>
       </c>
@@ -5925,7 +6095,9 @@
       <c r="F107" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G107" s="42"/>
+      <c r="G107" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H107" s="42" t="s">
         <v>131</v>
       </c>
@@ -5963,7 +6135,9 @@
       <c r="F108" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G108" s="42"/>
+      <c r="G108" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H108" s="42" t="s">
         <v>131</v>
       </c>
@@ -6001,7 +6175,9 @@
       <c r="F109" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G109" s="42"/>
+      <c r="G109" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H109" s="42" t="s">
         <v>131</v>
       </c>
@@ -6039,7 +6215,9 @@
       <c r="F110" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G110" s="42"/>
+      <c r="G110" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H110" s="42" t="s">
         <v>131</v>
       </c>
@@ -6077,7 +6255,9 @@
       <c r="F111" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G111" s="42"/>
+      <c r="G111" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H111" s="42" t="s">
         <v>131</v>
       </c>
@@ -6115,7 +6295,9 @@
       <c r="F112" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="42"/>
+      <c r="G112" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H112" s="42" t="s">
         <v>131</v>
       </c>
@@ -6153,7 +6335,9 @@
       <c r="F113" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G113" s="42"/>
+      <c r="G113" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H113" s="42" t="s">
         <v>131</v>
       </c>

--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AD6CF7-CEF3-2547-BA95-26E8C2CA5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC2B77-D69B-984D-9CB9-9B58476CF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1580" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="2600" windowWidth="31640" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6723" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6931" uniqueCount="473">
   <si>
     <t>Metadata</t>
   </si>
@@ -1492,6 +1492,57 @@
   </si>
   <si>
     <t>10.1007/s44210-022-00007-3</t>
+  </si>
+  <si>
+    <t>Ti22Zr22Nb42Hf7Ta7</t>
+  </si>
+  <si>
+    <t>Ti22Zr42Nb22Hf7Ta7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti42Zr22Nb22Hf7Ta7 </t>
+  </si>
+  <si>
+    <t>Ti27Zr27Nb27Hf9.5Ta9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti33.3Zr33.3Nb33.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zr33.3Nb33.3Ta33.3 </t>
+  </si>
+  <si>
+    <t>Ti25Zr25Nb25Ta25</t>
+  </si>
+  <si>
+    <t>TiZrNbHfTa</t>
+  </si>
+  <si>
+    <t>SLM</t>
+  </si>
+  <si>
+    <t>(TiZrNbHfTa)19.46 O1.9 N0.8</t>
+  </si>
+  <si>
+    <t>LMD of elemental powder blends on a 3 mm-thick Ti substrate in Ar; built vertically into columns; high-interstitial contamination feedstock</t>
+  </si>
+  <si>
+    <t>LMD of elemental powder blends on a 3 mm-thick Ti substrate in Ar; built vertically into columns; higher purity feedstock</t>
+  </si>
+  <si>
+    <t>hardness</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>strain rate of 1e−3/s</t>
+  </si>
+  <si>
+    <t>10.1088/2631-7990/abcca8</t>
   </si>
 </sst>
 </file>
@@ -2262,6 +2313,57 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2327,57 +2429,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2684,10 +2735,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T735"/>
+  <dimension ref="A1:T759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H739" sqref="H739"/>
+    <sheetView tabSelected="1" topLeftCell="J723" zoomScale="94" workbookViewId="0">
+      <selection activeCell="O759" sqref="O759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2736,19 +2787,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="61"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,17 +2810,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="65"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="82"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2798,43 +2849,43 @@
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2845,19 +2896,19 @@
       <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="76"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:20" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -2902,7 +2953,7 @@
       <c r="N7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="77"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
@@ -2915,35 +2966,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -33424,13 +33475,958 @@
         <v>165.8</v>
       </c>
     </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B736" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C736" s="42"/>
+      <c r="D736" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E736" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F736" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G736" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H736" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I736" s="3">
+        <v>298</v>
+      </c>
+      <c r="J736" s="50">
+        <v>1900000000</v>
+      </c>
+      <c r="L736" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M736" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="N736" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="737" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B737" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C737" s="42"/>
+      <c r="D737" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E737" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F737" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G737" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H737" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I737" s="3">
+        <v>298</v>
+      </c>
+      <c r="J737" s="50">
+        <v>22</v>
+      </c>
+      <c r="L737" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="M737" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="N737" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="738" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B738" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C738" s="42"/>
+      <c r="D738" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E738" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F738" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G738" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H738" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I738" s="3">
+        <v>298</v>
+      </c>
+      <c r="J738" s="50">
+        <v>1460000000</v>
+      </c>
+      <c r="K738" s="50">
+        <v>30000000</v>
+      </c>
+      <c r="L738" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M738" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="N738" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="739" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B739" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C739" s="42"/>
+      <c r="D739" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E739" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F739" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G739" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H739" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I739" s="3">
+        <v>298</v>
+      </c>
+      <c r="J739" s="50">
+        <f>P739*9807000</f>
+        <v>4471992000</v>
+      </c>
+      <c r="K739" s="50">
+        <f>Q739*9807000</f>
+        <v>147105000</v>
+      </c>
+      <c r="L739" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M739" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N739" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P739" s="6">
+        <v>456</v>
+      </c>
+      <c r="Q739" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="740" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B740" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C740" s="42"/>
+      <c r="D740" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E740" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F740" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G740" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H740" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I740" s="3">
+        <v>298</v>
+      </c>
+      <c r="J740" s="50">
+        <f t="shared" ref="J740:J747" si="10">P740*9807000</f>
+        <v>3373608000</v>
+      </c>
+      <c r="K740" s="50">
+        <f t="shared" ref="K740:K747" si="11">Q740*9807000</f>
+        <v>147105000</v>
+      </c>
+      <c r="L740" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M740" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N740" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P740" s="6">
+        <v>344</v>
+      </c>
+      <c r="Q740" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="741" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B741" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C741" s="42"/>
+      <c r="D741" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E741" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F741" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G741" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H741" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I741" s="3">
+        <v>298</v>
+      </c>
+      <c r="J741" s="50">
+        <f t="shared" si="10"/>
+        <v>3491292000</v>
+      </c>
+      <c r="K741" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L741" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M741" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N741" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P741" s="6">
+        <v>356</v>
+      </c>
+      <c r="Q741" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="742" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B742" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C742" s="42"/>
+      <c r="D742" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E742" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F742" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G742" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H742" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I742" s="3">
+        <v>298</v>
+      </c>
+      <c r="J742" s="50">
+        <f t="shared" si="10"/>
+        <v>3608976000</v>
+      </c>
+      <c r="K742" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L742" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M742" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N742" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P742" s="6">
+        <v>368</v>
+      </c>
+      <c r="Q742" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="743" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B743" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C743" s="42"/>
+      <c r="D743" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E743" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F743" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G743" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H743" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I743" s="3">
+        <v>298</v>
+      </c>
+      <c r="J743" s="50">
+        <f t="shared" si="10"/>
+        <v>2834223000</v>
+      </c>
+      <c r="K743" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L743" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M743" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N743" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P743" s="6">
+        <v>289</v>
+      </c>
+      <c r="Q743" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="744" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B744" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C744" s="42"/>
+      <c r="D744" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E744" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F744" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G744" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H744" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I744" s="3">
+        <v>298</v>
+      </c>
+      <c r="J744" s="50">
+        <f t="shared" si="10"/>
+        <v>3187275000</v>
+      </c>
+      <c r="K744" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L744" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M744" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N744" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P744" s="6">
+        <v>325</v>
+      </c>
+      <c r="Q744" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="745" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B745" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C745" s="42"/>
+      <c r="D745" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E745" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F745" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G745" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H745" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I745" s="3">
+        <v>298</v>
+      </c>
+      <c r="J745" s="50">
+        <f t="shared" si="10"/>
+        <v>2696925000</v>
+      </c>
+      <c r="K745" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L745" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M745" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N745" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P745" s="6">
+        <v>275</v>
+      </c>
+      <c r="Q745" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="746" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B746" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D746" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E746" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F746" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G746" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H746" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I746" s="3">
+        <v>298</v>
+      </c>
+      <c r="J746" s="50">
+        <f t="shared" si="10"/>
+        <v>2863644000</v>
+      </c>
+      <c r="K746" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L746" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M746" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N746" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P746" s="6">
+        <v>292</v>
+      </c>
+      <c r="Q746" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="747" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B747" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D747" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E747" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F747" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G747" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H747" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I747" s="3">
+        <v>298</v>
+      </c>
+      <c r="J747" s="50">
+        <f t="shared" si="10"/>
+        <v>2863644000</v>
+      </c>
+      <c r="K747" s="50">
+        <f t="shared" si="11"/>
+        <v>147105000</v>
+      </c>
+      <c r="L747" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M747" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N747" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="P747" s="6">
+        <v>292</v>
+      </c>
+      <c r="Q747" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="748" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B748" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C748" s="42"/>
+      <c r="D748" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E748" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F748" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G748" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H748" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I748" s="3">
+        <v>298</v>
+      </c>
+      <c r="J748" s="50">
+        <v>1105000000</v>
+      </c>
+      <c r="K748" s="50">
+        <v>10000000</v>
+      </c>
+      <c r="L748" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M748" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N748" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="749" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B749" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C749" s="42"/>
+      <c r="D749" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E749" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F749" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G749" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H749" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I749" s="3">
+        <v>298</v>
+      </c>
+      <c r="J749" s="50">
+        <v>795000000</v>
+      </c>
+      <c r="K749" s="50">
+        <v>4000000</v>
+      </c>
+      <c r="L749" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M749" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N749" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="750" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B750" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C750" s="42"/>
+      <c r="D750" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E750" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F750" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G750" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H750" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I750" s="3">
+        <v>298</v>
+      </c>
+      <c r="J750" s="50">
+        <v>910000000</v>
+      </c>
+      <c r="K750" s="50">
+        <v>50000000</v>
+      </c>
+      <c r="L750" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M750" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N750" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="751" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B751" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C751" s="42"/>
+      <c r="D751" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E751" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F751" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G751" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H751" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I751" s="3">
+        <v>298</v>
+      </c>
+      <c r="J751" s="50">
+        <v>840000000</v>
+      </c>
+      <c r="K751" s="50">
+        <v>30000000</v>
+      </c>
+      <c r="L751" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M751" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="N751" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="752" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B752" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C752" s="42"/>
+      <c r="D752" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E752" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F752" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G752" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H752" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I752" s="3">
+        <v>298</v>
+      </c>
+      <c r="J752" s="50">
+        <v>40</v>
+      </c>
+      <c r="L752" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N752" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="753" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B753" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C753" s="42"/>
+      <c r="D753" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E753" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F753" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G753" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H753" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I753" s="3">
+        <v>298</v>
+      </c>
+      <c r="J753" s="50">
+        <v>40</v>
+      </c>
+      <c r="L753" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N753" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="754" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B754" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C754" s="42"/>
+      <c r="D754" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E754" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F754" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G754" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H754" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I754" s="3">
+        <v>298</v>
+      </c>
+      <c r="J754" s="50">
+        <v>40</v>
+      </c>
+      <c r="L754" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N754" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="755" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B755" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C755" s="42"/>
+      <c r="D755" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E755" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F755" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G755" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H755" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I755" s="3">
+        <v>298</v>
+      </c>
+      <c r="J755" s="50">
+        <v>40</v>
+      </c>
+      <c r="L755" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N755" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="756" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B756" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C756" s="42"/>
+      <c r="D756" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E756" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F756" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G756" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H756" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I756" s="3">
+        <v>298</v>
+      </c>
+      <c r="J756" s="50">
+        <v>40</v>
+      </c>
+      <c r="L756" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N756" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="757" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B757" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C757" s="42"/>
+      <c r="D757" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E757" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F757" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G757" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I757" s="3">
+        <v>298</v>
+      </c>
+      <c r="J757" s="50">
+        <v>40</v>
+      </c>
+      <c r="L757" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N757" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="758" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B758" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D758" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E758" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F758" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G758" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H758" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I758" s="3">
+        <v>298</v>
+      </c>
+      <c r="J758" s="50">
+        <v>40</v>
+      </c>
+      <c r="L758" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N758" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="759" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B759" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D759" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E759" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F759" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G759" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H759" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I759" s="3">
+        <v>298</v>
+      </c>
+      <c r="J759" s="50">
+        <v>40</v>
+      </c>
+      <c r="L759" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N759" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -33445,6 +34441,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HighThroughput_Nov2024.xlsx
+++ b/HighThroughput_Nov2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297A15A-9514-1B43-AB8B-22337262784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3896412-A963-754D-8D8C-498C19CE33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="2600" windowWidth="18960" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1860,9 +1860,6 @@
     <t>density</t>
   </si>
   <si>
-    <t>g/cm^3</t>
-  </si>
-  <si>
     <t>archimedes method</t>
   </si>
   <si>
@@ -1870,6 +1867,9 @@
   </si>
   <si>
     <t>F4</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2645,6 +2645,58 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2711,61 +2763,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3073,8 +3070,8 @@
   </sheetPr>
   <dimension ref="A1:T897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J845" zoomScale="94" workbookViewId="0">
-      <selection activeCell="O859" sqref="O859"/>
+    <sheetView tabSelected="1" topLeftCell="B852" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L901" sqref="L901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3123,19 +3120,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="61"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1">
@@ -3146,17 +3143,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="65"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1">
@@ -3185,43 +3182,43 @@
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="54" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3232,19 +3229,19 @@
       <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="76"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:20" ht="23.5" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -3289,7 +3286,7 @@
       <c r="N7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="77"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
@@ -3302,35 +3299,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="26" t="s">
@@ -34771,7 +34768,7 @@
       <c r="C760" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E760" s="92" t="s">
+      <c r="E760" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F760" s="48" t="s">
@@ -34797,7 +34794,7 @@
         <v>540</v>
       </c>
       <c r="N760" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P760" s="50">
         <v>257.60000000000002</v>
@@ -34813,7 +34810,7 @@
       <c r="C761" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E761" s="92" t="s">
+      <c r="E761" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F761" s="48" t="s">
@@ -34839,7 +34836,7 @@
         <v>540</v>
       </c>
       <c r="N761" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P761" s="50">
         <v>260</v>
@@ -34855,7 +34852,7 @@
       <c r="C762" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E762" s="92" t="s">
+      <c r="E762" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F762" s="48" t="s">
@@ -34881,7 +34878,7 @@
         <v>540</v>
       </c>
       <c r="N762" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P762" s="50">
         <v>256.3</v>
@@ -34897,7 +34894,7 @@
       <c r="C763" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E763" s="92" t="s">
+      <c r="E763" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F763" s="48" t="s">
@@ -34923,7 +34920,7 @@
         <v>540</v>
       </c>
       <c r="N763" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P763" s="50">
         <v>264.7</v>
@@ -34939,7 +34936,7 @@
       <c r="C764" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E764" s="92" t="s">
+      <c r="E764" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F764" s="48" t="s">
@@ -34965,7 +34962,7 @@
         <v>540</v>
       </c>
       <c r="N764" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P764" s="50">
         <v>268.89999999999998</v>
@@ -34981,7 +34978,7 @@
       <c r="C765" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E765" s="92" t="s">
+      <c r="E765" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F765" s="48" t="s">
@@ -35007,7 +35004,7 @@
         <v>540</v>
       </c>
       <c r="N765" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P765" s="50">
         <v>273.7</v>
@@ -35023,7 +35020,7 @@
       <c r="C766" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E766" s="92" t="s">
+      <c r="E766" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F766" s="48" t="s">
@@ -35049,7 +35046,7 @@
         <v>540</v>
       </c>
       <c r="N766" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P766" s="50">
         <v>261.2</v>
@@ -35065,7 +35062,7 @@
       <c r="C767" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E767" s="92" t="s">
+      <c r="E767" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F767" s="48" t="s">
@@ -35091,7 +35088,7 @@
         <v>540</v>
       </c>
       <c r="N767" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P767" s="50">
         <v>272.2</v>
@@ -35107,7 +35104,7 @@
       <c r="C768" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E768" s="92" t="s">
+      <c r="E768" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F768" s="48" t="s">
@@ -35133,7 +35130,7 @@
         <v>540</v>
       </c>
       <c r="N768" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P768" s="50">
         <v>243.9</v>
@@ -35149,7 +35146,7 @@
       <c r="C769" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E769" s="92" t="s">
+      <c r="E769" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F769" s="48" t="s">
@@ -35175,7 +35172,7 @@
         <v>540</v>
       </c>
       <c r="N769" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P769" s="50">
         <v>237.6</v>
@@ -35191,7 +35188,7 @@
       <c r="C770" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E770" s="92" t="s">
+      <c r="E770" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F770" s="48" t="s">
@@ -35217,7 +35214,7 @@
         <v>540</v>
       </c>
       <c r="N770" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P770" s="50">
         <v>240</v>
@@ -35233,7 +35230,7 @@
       <c r="C771" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E771" s="92" t="s">
+      <c r="E771" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F771" s="48" t="s">
@@ -35259,7 +35256,7 @@
         <v>540</v>
       </c>
       <c r="N771" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P771" s="50">
         <v>250.3</v>
@@ -35275,7 +35272,7 @@
       <c r="C772" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E772" s="92" t="s">
+      <c r="E772" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F772" s="48" t="s">
@@ -35301,7 +35298,7 @@
         <v>540</v>
       </c>
       <c r="N772" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P772" s="50">
         <v>238.4</v>
@@ -35317,7 +35314,7 @@
       <c r="C773" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E773" s="92" t="s">
+      <c r="E773" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F773" s="48" t="s">
@@ -35343,7 +35340,7 @@
         <v>540</v>
       </c>
       <c r="N773" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P773" s="50">
         <v>265.8</v>
@@ -35359,7 +35356,7 @@
       <c r="C774" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E774" s="92" t="s">
+      <c r="E774" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F774" s="48" t="s">
@@ -35385,7 +35382,7 @@
         <v>540</v>
       </c>
       <c r="N774" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P774" s="50">
         <v>241.1</v>
@@ -35401,7 +35398,7 @@
       <c r="C775" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E775" s="92" t="s">
+      <c r="E775" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F775" s="48" t="s">
@@ -35427,7 +35424,7 @@
         <v>540</v>
       </c>
       <c r="N775" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P775" s="50">
         <v>257.39999999999998</v>
@@ -35443,7 +35440,7 @@
       <c r="C776" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E776" s="92" t="s">
+      <c r="E776" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F776" s="48" t="s">
@@ -35469,7 +35466,7 @@
         <v>540</v>
       </c>
       <c r="N776" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P776" s="50">
         <v>237.1</v>
@@ -35485,7 +35482,7 @@
       <c r="C777" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E777" s="92" t="s">
+      <c r="E777" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F777" s="48" t="s">
@@ -35511,7 +35508,7 @@
         <v>540</v>
       </c>
       <c r="N777" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P777" s="50">
         <v>246.3</v>
@@ -35527,7 +35524,7 @@
       <c r="C778" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E778" s="92" t="s">
+      <c r="E778" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F778" s="48" t="s">
@@ -35553,7 +35550,7 @@
         <v>540</v>
       </c>
       <c r="N778" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P778" s="50">
         <v>249.7</v>
@@ -35569,7 +35566,7 @@
       <c r="C779" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E779" s="92" t="s">
+      <c r="E779" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F779" s="48" t="s">
@@ -35595,7 +35592,7 @@
         <v>540</v>
       </c>
       <c r="N779" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P779" s="50">
         <v>247.3</v>
@@ -35611,7 +35608,7 @@
       <c r="C780" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E780" s="92" t="s">
+      <c r="E780" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F780" s="48" t="s">
@@ -35637,7 +35634,7 @@
         <v>540</v>
       </c>
       <c r="N780" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P780" s="50">
         <v>240.1</v>
@@ -35653,7 +35650,7 @@
       <c r="C781" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E781" s="92" t="s">
+      <c r="E781" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F781" s="48" t="s">
@@ -35679,7 +35676,7 @@
         <v>540</v>
       </c>
       <c r="N781" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P781" s="50">
         <v>241</v>
@@ -35695,7 +35692,7 @@
       <c r="C782" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E782" s="92" t="s">
+      <c r="E782" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F782" s="48" t="s">
@@ -35721,7 +35718,7 @@
         <v>540</v>
       </c>
       <c r="N782" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P782" s="50">
         <v>240.4</v>
@@ -35737,7 +35734,7 @@
       <c r="C783" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E783" s="92" t="s">
+      <c r="E783" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F783" s="48" t="s">
@@ -35763,7 +35760,7 @@
         <v>540</v>
       </c>
       <c r="N783" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P783" s="50">
         <v>243.6</v>
@@ -35779,7 +35776,7 @@
       <c r="C784" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E784" s="92" t="s">
+      <c r="E784" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F784" s="48" t="s">
@@ -35805,7 +35802,7 @@
         <v>540</v>
       </c>
       <c r="N784" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P784" s="50">
         <v>260.10000000000002</v>
@@ -35821,7 +35818,7 @@
       <c r="C785" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E785" s="92" t="s">
+      <c r="E785" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F785" s="48" t="s">
@@ -35847,7 +35844,7 @@
         <v>540</v>
       </c>
       <c r="N785" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P785" s="50">
         <v>266.10000000000002</v>
@@ -35863,7 +35860,7 @@
       <c r="C786" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E786" s="92" t="s">
+      <c r="E786" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F786" s="48" t="s">
@@ -35889,7 +35886,7 @@
         <v>540</v>
       </c>
       <c r="N786" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P786" s="50">
         <v>267.10000000000002</v>
@@ -35905,7 +35902,7 @@
       <c r="C787" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E787" s="92" t="s">
+      <c r="E787" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F787" s="48" t="s">
@@ -35931,7 +35928,7 @@
         <v>540</v>
       </c>
       <c r="N787" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P787" s="50">
         <v>270.8</v>
@@ -35947,7 +35944,7 @@
       <c r="C788" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E788" s="92" t="s">
+      <c r="E788" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F788" s="48" t="s">
@@ -35973,7 +35970,7 @@
         <v>540</v>
       </c>
       <c r="N788" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P788" s="50">
         <v>255.8</v>
@@ -35989,7 +35986,7 @@
       <c r="C789" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E789" s="92" t="s">
+      <c r="E789" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F789" s="48" t="s">
@@ -36015,7 +36012,7 @@
         <v>540</v>
       </c>
       <c r="N789" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P789" s="50">
         <v>270.39999999999998</v>
@@ -36031,7 +36028,7 @@
       <c r="C790" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E790" s="92" t="s">
+      <c r="E790" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F790" s="48" t="s">
@@ -36057,7 +36054,7 @@
         <v>540</v>
       </c>
       <c r="N790" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P790" s="50">
         <v>265.3</v>
@@ -36073,7 +36070,7 @@
       <c r="C791" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E791" s="92" t="s">
+      <c r="E791" s="44" t="s">
         <v>537</v>
       </c>
       <c r="F791" s="48" t="s">
@@ -36099,7 +36096,7 @@
         <v>540</v>
       </c>
       <c r="N791" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P791" s="50">
         <v>272.8</v>
@@ -36118,7 +36115,7 @@
       <c r="D792" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E792" s="92" t="s">
+      <c r="E792" s="44" t="s">
         <v>541</v>
       </c>
       <c r="F792" s="48" t="s">
@@ -36141,9 +36138,9 @@
         <v>105</v>
       </c>
       <c r="N792" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P792" s="93">
+        <v>579</v>
+      </c>
+      <c r="P792" s="53">
         <v>256.32508833922202</v>
       </c>
     </row>
@@ -36160,7 +36157,7 @@
       <c r="D793" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E793" s="92" t="s">
+      <c r="E793" s="44" t="s">
         <v>543</v>
       </c>
       <c r="F793" s="48" t="s">
@@ -36183,9 +36180,9 @@
         <v>105</v>
       </c>
       <c r="N793" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P793" s="93">
+        <v>579</v>
+      </c>
+      <c r="P793" s="53">
         <v>261.55477031802099</v>
       </c>
     </row>
@@ -36202,7 +36199,7 @@
       <c r="D794" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E794" s="92" t="s">
+      <c r="E794" s="44" t="s">
         <v>544</v>
       </c>
       <c r="F794" s="48" t="s">
@@ -36225,9 +36222,9 @@
         <v>105</v>
       </c>
       <c r="N794" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P794" s="93">
+        <v>579</v>
+      </c>
+      <c r="P794" s="53">
         <v>258.16254416961101</v>
       </c>
     </row>
@@ -36244,7 +36241,7 @@
       <c r="D795" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E795" s="92" t="s">
+      <c r="E795" s="44" t="s">
         <v>545</v>
       </c>
       <c r="F795" s="48" t="s">
@@ -36267,9 +36264,9 @@
         <v>105</v>
       </c>
       <c r="N795" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P795" s="93">
+        <v>579</v>
+      </c>
+      <c r="P795" s="53">
         <v>260</v>
       </c>
     </row>
@@ -36286,7 +36283,7 @@
       <c r="D796" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E796" s="92" t="s">
+      <c r="E796" s="44" t="s">
         <v>546</v>
       </c>
       <c r="F796" s="48" t="s">
@@ -36309,9 +36306,9 @@
         <v>105</v>
       </c>
       <c r="N796" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P796" s="93">
+        <v>579</v>
+      </c>
+      <c r="P796" s="53">
         <v>271.16607773851501</v>
       </c>
     </row>
@@ -36328,7 +36325,7 @@
       <c r="D797" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E797" s="92" t="s">
+      <c r="E797" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F797" s="48" t="s">
@@ -36351,9 +36348,9 @@
         <v>105</v>
       </c>
       <c r="N797" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P797" s="93">
+        <v>579</v>
+      </c>
+      <c r="P797" s="53">
         <v>270.742049469964</v>
       </c>
     </row>
@@ -36370,7 +36367,7 @@
       <c r="D798" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E798" s="92" t="s">
+      <c r="E798" s="44" t="s">
         <v>548</v>
       </c>
       <c r="F798" s="48" t="s">
@@ -36393,9 +36390,9 @@
         <v>105</v>
       </c>
       <c r="N798" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P798" s="93">
+        <v>579</v>
+      </c>
+      <c r="P798" s="53">
         <v>262.40282685512301</v>
       </c>
     </row>
@@ -36412,7 +36409,7 @@
       <c r="D799" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E799" s="92" t="s">
+      <c r="E799" s="44" t="s">
         <v>549</v>
       </c>
       <c r="F799" s="48" t="s">
@@ -36435,9 +36432,9 @@
         <v>105</v>
       </c>
       <c r="N799" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P799" s="93">
+        <v>579</v>
+      </c>
+      <c r="P799" s="53">
         <v>274.27561837455801</v>
       </c>
     </row>
@@ -36454,7 +36451,7 @@
       <c r="D800" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E800" s="92" t="s">
+      <c r="E800" s="44" t="s">
         <v>550</v>
       </c>
       <c r="F800" s="48" t="s">
@@ -36477,9 +36474,9 @@
         <v>105</v>
       </c>
       <c r="N800" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P800" s="93">
+        <v>579</v>
+      </c>
+      <c r="P800" s="53">
         <v>252.22614840989399</v>
       </c>
     </row>
@@ -36496,7 +36493,7 @@
       <c r="D801" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E801" s="92" t="s">
+      <c r="E801" s="44" t="s">
         <v>551</v>
       </c>
       <c r="F801" s="48" t="s">
@@ -36519,9 +36516,9 @@
         <v>105</v>
       </c>
       <c r="N801" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P801" s="93">
+        <v>579</v>
+      </c>
+      <c r="P801" s="53">
         <v>244.31095406360399</v>
       </c>
     </row>
@@ -36538,7 +36535,7 @@
       <c r="D802" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E802" s="92" t="s">
+      <c r="E802" s="44" t="s">
         <v>552</v>
       </c>
       <c r="F802" s="48" t="s">
@@ -36561,9 +36558,9 @@
         <v>105</v>
       </c>
       <c r="N802" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P802" s="93">
+        <v>579</v>
+      </c>
+      <c r="P802" s="53">
         <v>251.236749116607</v>
       </c>
     </row>
@@ -36580,7 +36577,7 @@
       <c r="D803" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E803" s="92" t="s">
+      <c r="E803" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F803" s="48" t="s">
@@ -36603,9 +36600,9 @@
         <v>105</v>
       </c>
       <c r="N803" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P803" s="93">
+        <v>579</v>
+      </c>
+      <c r="P803" s="53">
         <v>250.67137809187199</v>
       </c>
     </row>
@@ -36622,7 +36619,7 @@
       <c r="D804" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E804" s="92" t="s">
+      <c r="E804" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F804" s="48" t="s">
@@ -36645,9 +36642,9 @@
         <v>105</v>
       </c>
       <c r="N804" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P804" s="93">
+        <v>579</v>
+      </c>
+      <c r="P804" s="53">
         <v>245.865724381625</v>
       </c>
     </row>
@@ -36664,7 +36661,7 @@
       <c r="D805" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E805" s="92" t="s">
+      <c r="E805" s="44" t="s">
         <v>555</v>
       </c>
       <c r="F805" s="48" t="s">
@@ -36687,9 +36684,9 @@
         <v>105</v>
       </c>
       <c r="N805" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P805" s="93">
+        <v>579</v>
+      </c>
+      <c r="P805" s="53">
         <v>272.29681978798499</v>
       </c>
     </row>
@@ -36706,7 +36703,7 @@
       <c r="D806" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E806" s="92" t="s">
+      <c r="E806" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F806" s="48" t="s">
@@ -36729,9 +36726,9 @@
         <v>105</v>
       </c>
       <c r="N806" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P806" s="93">
+        <v>579</v>
+      </c>
+      <c r="P806" s="53">
         <v>246.855123674911</v>
       </c>
     </row>
@@ -36748,7 +36745,7 @@
       <c r="D807" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E807" s="92" t="s">
+      <c r="E807" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F807" s="48" t="s">
@@ -36771,9 +36768,9 @@
         <v>105</v>
       </c>
       <c r="N807" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P807" s="93">
+        <v>579</v>
+      </c>
+      <c r="P807" s="53">
         <v>263.67491166077701</v>
       </c>
     </row>
@@ -36790,7 +36787,7 @@
       <c r="D808" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E808" s="92" t="s">
+      <c r="E808" s="44" t="s">
         <v>558</v>
       </c>
       <c r="F808" s="48" t="s">
@@ -36813,9 +36810,9 @@
         <v>105</v>
       </c>
       <c r="N808" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P808" s="93">
+        <v>579</v>
+      </c>
+      <c r="P808" s="53">
         <v>240.494699646643</v>
       </c>
     </row>
@@ -36832,7 +36829,7 @@
       <c r="D809" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E809" s="92" t="s">
+      <c r="E809" s="44" t="s">
         <v>559</v>
       </c>
       <c r="F809" s="48" t="s">
@@ -36855,9 +36852,9 @@
         <v>105</v>
       </c>
       <c r="N809" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P809" s="93">
+        <v>579</v>
+      </c>
+      <c r="P809" s="53">
         <v>246.57243816254399</v>
       </c>
     </row>
@@ -36874,7 +36871,7 @@
       <c r="D810" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E810" s="92" t="s">
+      <c r="E810" s="44" t="s">
         <v>560</v>
       </c>
       <c r="F810" s="48" t="s">
@@ -36897,9 +36894,9 @@
         <v>105</v>
       </c>
       <c r="N810" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P810" s="93">
+        <v>579</v>
+      </c>
+      <c r="P810" s="53">
         <v>251.66077738515901</v>
       </c>
     </row>
@@ -36916,7 +36913,7 @@
       <c r="D811" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E811" s="92" t="s">
+      <c r="E811" s="44" t="s">
         <v>561</v>
       </c>
       <c r="F811" s="48" t="s">
@@ -36939,9 +36936,9 @@
         <v>105</v>
       </c>
       <c r="N811" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P811" s="93">
+        <v>579</v>
+      </c>
+      <c r="P811" s="53">
         <v>258.16254416961101</v>
       </c>
     </row>
@@ -36958,7 +36955,7 @@
       <c r="D812" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E812" s="92" t="s">
+      <c r="E812" s="44" t="s">
         <v>562</v>
       </c>
       <c r="F812" s="48" t="s">
@@ -36981,9 +36978,9 @@
         <v>105</v>
       </c>
       <c r="N812" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P812" s="93">
+        <v>579</v>
+      </c>
+      <c r="P812" s="53">
         <v>243.604240282685</v>
       </c>
     </row>
@@ -37000,7 +36997,7 @@
       <c r="D813" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E813" s="92" t="s">
+      <c r="E813" s="44" t="s">
         <v>563</v>
       </c>
       <c r="F813" s="48" t="s">
@@ -37023,9 +37020,9 @@
         <v>105</v>
       </c>
       <c r="N813" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P813" s="93">
+        <v>579</v>
+      </c>
+      <c r="P813" s="53">
         <v>241.342756183745</v>
       </c>
     </row>
@@ -37042,7 +37039,7 @@
       <c r="D814" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E814" s="92" t="s">
+      <c r="E814" s="44" t="s">
         <v>564</v>
       </c>
       <c r="F814" s="48" t="s">
@@ -37065,9 +37062,9 @@
         <v>105</v>
       </c>
       <c r="N814" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P814" s="93">
+        <v>579</v>
+      </c>
+      <c r="P814" s="53">
         <v>237.66784452296801</v>
       </c>
     </row>
@@ -37084,7 +37081,7 @@
       <c r="D815" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E815" s="92" t="s">
+      <c r="E815" s="44" t="s">
         <v>565</v>
       </c>
       <c r="F815" s="48" t="s">
@@ -37107,9 +37104,9 @@
         <v>105</v>
       </c>
       <c r="N815" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P815" s="93">
+        <v>579</v>
+      </c>
+      <c r="P815" s="53">
         <v>246.855123674911</v>
       </c>
     </row>
@@ -37126,7 +37123,7 @@
       <c r="D816" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E816" s="92" t="s">
+      <c r="E816" s="44" t="s">
         <v>566</v>
       </c>
       <c r="F816" s="48" t="s">
@@ -37149,9 +37146,9 @@
         <v>105</v>
       </c>
       <c r="N816" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P816" s="93">
+        <v>579</v>
+      </c>
+      <c r="P816" s="53">
         <v>254.487632508833</v>
       </c>
     </row>
@@ -37168,7 +37165,7 @@
       <c r="D817" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E817" s="92" t="s">
+      <c r="E817" s="44" t="s">
         <v>567</v>
       </c>
       <c r="F817" s="48" t="s">
@@ -37191,9 +37188,9 @@
         <v>105</v>
       </c>
       <c r="N817" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P817" s="93">
+        <v>579</v>
+      </c>
+      <c r="P817" s="53">
         <v>268.763250883392</v>
       </c>
     </row>
@@ -37210,7 +37207,7 @@
       <c r="D818" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E818" s="92" t="s">
+      <c r="E818" s="44" t="s">
         <v>568</v>
       </c>
       <c r="F818" s="48" t="s">
@@ -37233,9 +37230,9 @@
         <v>105</v>
       </c>
       <c r="N818" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P818" s="93">
+        <v>579</v>
+      </c>
+      <c r="P818" s="53">
         <v>260.56537102473499</v>
       </c>
     </row>
@@ -37252,7 +37249,7 @@
       <c r="D819" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E819" s="92" t="s">
+      <c r="E819" s="44" t="s">
         <v>569</v>
       </c>
       <c r="F819" s="48" t="s">
@@ -37275,9 +37272,9 @@
         <v>105</v>
       </c>
       <c r="N819" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P819" s="93">
+        <v>579</v>
+      </c>
+      <c r="P819" s="53">
         <v>272.01413427561801</v>
       </c>
     </row>
@@ -37294,7 +37291,7 @@
       <c r="D820" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E820" s="92" t="s">
+      <c r="E820" s="44" t="s">
         <v>570</v>
       </c>
       <c r="F820" s="48" t="s">
@@ -37317,9 +37314,9 @@
         <v>105</v>
       </c>
       <c r="N820" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P820" s="93">
+        <v>579</v>
+      </c>
+      <c r="P820" s="53">
         <v>260.28268551236698</v>
       </c>
     </row>
@@ -37336,7 +37333,7 @@
       <c r="D821" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E821" s="92" t="s">
+      <c r="E821" s="44" t="s">
         <v>571</v>
       </c>
       <c r="F821" s="48" t="s">
@@ -37359,9 +37356,9 @@
         <v>105</v>
       </c>
       <c r="N821" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P821" s="93">
+        <v>579</v>
+      </c>
+      <c r="P821" s="53">
         <v>274.41696113074198</v>
       </c>
     </row>
@@ -37378,7 +37375,7 @@
       <c r="D822" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E822" s="92" t="s">
+      <c r="E822" s="44" t="s">
         <v>572</v>
       </c>
       <c r="F822" s="48" t="s">
@@ -37401,9 +37398,9 @@
         <v>105</v>
       </c>
       <c r="N822" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P822" s="93">
+        <v>579</v>
+      </c>
+      <c r="P822" s="53">
         <v>264.80565371024699</v>
       </c>
     </row>
@@ -37420,7 +37417,7 @@
       <c r="D823" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E823" s="92" t="s">
+      <c r="E823" s="44" t="s">
         <v>573</v>
       </c>
       <c r="F823" s="48" t="s">
@@ -37443,9 +37440,9 @@
         <v>105</v>
       </c>
       <c r="N823" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="P823" s="93">
+        <v>579</v>
+      </c>
+      <c r="P823" s="53">
         <v>275.26501766784401</v>
       </c>
     </row>
@@ -37462,7 +37459,7 @@
       <c r="D824" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E824" s="92" t="s">
+      <c r="E824" s="44" t="s">
         <v>541</v>
       </c>
       <c r="F824" s="48" t="s">
@@ -37485,7 +37482,7 @@
         <v>105</v>
       </c>
       <c r="N824" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P824" s="6">
         <v>238.59426128537001</v>
@@ -37504,7 +37501,7 @@
       <c r="D825" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E825" s="92" t="s">
+      <c r="E825" s="44" t="s">
         <v>543</v>
       </c>
       <c r="F825" s="48" t="s">
@@ -37527,7 +37524,7 @@
         <v>105</v>
       </c>
       <c r="N825" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P825" s="6">
         <v>243.729396063124</v>
@@ -37546,7 +37543,7 @@
       <c r="D826" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E826" s="92" t="s">
+      <c r="E826" s="44" t="s">
         <v>544</v>
       </c>
       <c r="F826" s="48" t="s">
@@ -37569,7 +37566,7 @@
         <v>105</v>
       </c>
       <c r="N826" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P826" s="6">
         <v>240.75642329705599</v>
@@ -37588,7 +37585,7 @@
       <c r="D827" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E827" s="92" t="s">
+      <c r="E827" s="44" t="s">
         <v>545</v>
       </c>
       <c r="F827" s="48" t="s">
@@ -37611,7 +37608,7 @@
         <v>105</v>
       </c>
       <c r="N827" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P827" s="6">
         <v>242.37804480582</v>
@@ -37630,7 +37627,7 @@
       <c r="D828" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E828" s="92" t="s">
+      <c r="E828" s="44" t="s">
         <v>546</v>
       </c>
       <c r="F828" s="48" t="s">
@@ -37653,7 +37650,7 @@
         <v>105</v>
       </c>
       <c r="N828" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P828" s="6">
         <v>253.99966561863101</v>
@@ -37672,7 +37669,7 @@
       <c r="D829" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E829" s="92" t="s">
+      <c r="E829" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F829" s="48" t="s">
@@ -37695,7 +37692,7 @@
         <v>105</v>
       </c>
       <c r="N829" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P829" s="6">
         <v>253.99966561863101</v>
@@ -37714,7 +37711,7 @@
       <c r="D830" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E830" s="92" t="s">
+      <c r="E830" s="44" t="s">
         <v>548</v>
       </c>
       <c r="F830" s="48" t="s">
@@ -37737,7 +37734,7 @@
         <v>105</v>
       </c>
       <c r="N830" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P830" s="6">
         <v>228.864532232785</v>
@@ -37756,7 +37753,7 @@
       <c r="D831" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E831" s="92" t="s">
+      <c r="E831" s="44" t="s">
         <v>549</v>
       </c>
       <c r="F831" s="48" t="s">
@@ -37779,7 +37776,7 @@
         <v>105</v>
       </c>
       <c r="N831" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P831" s="6">
         <v>255.35101687593399</v>
@@ -37798,7 +37795,7 @@
       <c r="D832" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E832" s="92" t="s">
+      <c r="E832" s="44" t="s">
         <v>550</v>
       </c>
       <c r="F832" s="48" t="s">
@@ -37821,7 +37818,7 @@
         <v>105</v>
       </c>
       <c r="N832" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P832" s="6">
         <v>235.08074801638099</v>
@@ -37840,7 +37837,7 @@
       <c r="D833" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E833" s="92" t="s">
+      <c r="E833" s="44" t="s">
         <v>551</v>
       </c>
       <c r="F833" s="48" t="s">
@@ -37863,7 +37860,7 @@
         <v>105</v>
       </c>
       <c r="N833" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P833" s="6">
         <v>227.24291072402099</v>
@@ -37882,7 +37879,7 @@
       <c r="D834" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E834" s="92" t="s">
+      <c r="E834" s="44" t="s">
         <v>552</v>
       </c>
       <c r="F834" s="48" t="s">
@@ -37905,7 +37902,7 @@
         <v>105</v>
       </c>
       <c r="N834" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P834" s="6">
         <v>234.26993726199899</v>
@@ -37924,7 +37921,7 @@
       <c r="D835" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E835" s="92" t="s">
+      <c r="E835" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F835" s="48" t="s">
@@ -37947,7 +37944,7 @@
         <v>105</v>
       </c>
       <c r="N835" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P835" s="6">
         <v>233.99966701053799</v>
@@ -37966,7 +37963,7 @@
       <c r="D836" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E836" s="92" t="s">
+      <c r="E836" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F836" s="48" t="s">
@@ -37989,7 +37986,7 @@
         <v>105</v>
       </c>
       <c r="N836" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P836" s="6">
         <v>229.405072735706</v>
@@ -38008,7 +38005,7 @@
       <c r="D837" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E837" s="92" t="s">
+      <c r="E837" s="44" t="s">
         <v>555</v>
       </c>
       <c r="F837" s="48" t="s">
@@ -38031,7 +38028,7 @@
         <v>105</v>
       </c>
       <c r="N837" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P837" s="6">
         <v>255.891557378855</v>
@@ -38050,7 +38047,7 @@
       <c r="D838" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E838" s="92" t="s">
+      <c r="E838" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F838" s="48" t="s">
@@ -38073,7 +38070,7 @@
         <v>105</v>
       </c>
       <c r="N838" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P838" s="6">
         <v>213.99966840244599</v>
@@ -38092,7 +38089,7 @@
       <c r="D839" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E839" s="92" t="s">
+      <c r="E839" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F839" s="48" t="s">
@@ -38115,7 +38112,7 @@
         <v>105</v>
       </c>
       <c r="N839" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P839" s="6">
         <v>245.89155807480901</v>
@@ -38134,7 +38131,7 @@
       <c r="D840" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E840" s="92" t="s">
+      <c r="E840" s="44" t="s">
         <v>558</v>
       </c>
       <c r="F840" s="48" t="s">
@@ -38157,7 +38154,7 @@
         <v>105</v>
       </c>
       <c r="N840" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P840" s="6">
         <v>222.918586700649</v>
@@ -38176,7 +38173,7 @@
       <c r="D841" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E841" s="92" t="s">
+      <c r="E841" s="44" t="s">
         <v>559</v>
       </c>
       <c r="F841" s="48" t="s">
@@ -38199,7 +38196,7 @@
         <v>105</v>
       </c>
       <c r="N841" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P841" s="6">
         <v>228.864532232785</v>
@@ -38218,7 +38215,7 @@
       <c r="D842" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E842" s="92" t="s">
+      <c r="E842" s="44" t="s">
         <v>560</v>
       </c>
       <c r="F842" s="48" t="s">
@@ -38241,7 +38238,7 @@
         <v>105</v>
       </c>
       <c r="N842" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P842" s="6">
         <v>234.26993726199899</v>
@@ -38260,7 +38257,7 @@
       <c r="D843" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E843" s="92" t="s">
+      <c r="E843" s="44" t="s">
         <v>561</v>
       </c>
       <c r="F843" s="48" t="s">
@@ -38283,7 +38280,7 @@
         <v>105</v>
       </c>
       <c r="N843" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P843" s="6">
         <v>240.75642329705599</v>
@@ -38302,7 +38299,7 @@
       <c r="D844" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E844" s="92" t="s">
+      <c r="E844" s="44" t="s">
         <v>562</v>
       </c>
       <c r="F844" s="48" t="s">
@@ -38325,7 +38322,7 @@
         <v>105</v>
       </c>
       <c r="N844" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P844" s="6">
         <v>226.43209996963799</v>
@@ -38344,7 +38341,7 @@
       <c r="D845" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E845" s="92" t="s">
+      <c r="E845" s="44" t="s">
         <v>563</v>
       </c>
       <c r="F845" s="48" t="s">
@@ -38367,7 +38364,7 @@
         <v>105</v>
       </c>
       <c r="N845" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P845" s="6">
         <v>224.81047846087401</v>
@@ -38386,7 +38383,7 @@
       <c r="D846" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E846" s="92" t="s">
+      <c r="E846" s="44" t="s">
         <v>564</v>
       </c>
       <c r="F846" s="48" t="s">
@@ -38409,7 +38406,7 @@
         <v>105</v>
       </c>
       <c r="N846" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P846" s="6">
         <v>203.99966909840001</v>
@@ -38428,7 +38425,7 @@
       <c r="D847" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E847" s="92" t="s">
+      <c r="E847" s="44" t="s">
         <v>565</v>
       </c>
       <c r="F847" s="48" t="s">
@@ -38451,7 +38448,7 @@
         <v>105</v>
       </c>
       <c r="N847" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P847" s="6">
         <v>228.323991729863</v>
@@ -38470,7 +38467,7 @@
       <c r="D848" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E848" s="92" t="s">
+      <c r="E848" s="44" t="s">
         <v>566</v>
       </c>
       <c r="F848" s="48" t="s">
@@ -38493,7 +38490,7 @@
         <v>105</v>
       </c>
       <c r="N848" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P848" s="6">
         <v>238.59426128537001</v>
@@ -38512,7 +38509,7 @@
       <c r="D849" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E849" s="92" t="s">
+      <c r="E849" s="44" t="s">
         <v>567</v>
       </c>
       <c r="F849" s="48" t="s">
@@ -38535,7 +38532,7 @@
         <v>105</v>
       </c>
       <c r="N849" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P849" s="6">
         <v>252.91858461278801</v>
@@ -38554,7 +38551,7 @@
       <c r="D850" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E850" s="92" t="s">
+      <c r="E850" s="44" t="s">
         <v>568</v>
       </c>
       <c r="F850" s="48" t="s">
@@ -38577,7 +38574,7 @@
         <v>105</v>
       </c>
       <c r="N850" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P850" s="6">
         <v>245.35101757188801</v>
@@ -38596,7 +38593,7 @@
       <c r="D851" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E851" s="92" t="s">
+      <c r="E851" s="44" t="s">
         <v>569</v>
       </c>
       <c r="F851" s="48" t="s">
@@ -38619,7 +38616,7 @@
         <v>105</v>
       </c>
       <c r="N851" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P851" s="6">
         <v>256.432097881777</v>
@@ -38638,7 +38635,7 @@
       <c r="D852" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E852" s="92" t="s">
+      <c r="E852" s="44" t="s">
         <v>570</v>
       </c>
       <c r="F852" s="48" t="s">
@@ -38661,7 +38658,7 @@
         <v>105</v>
       </c>
       <c r="N852" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P852" s="6">
         <v>245.35101757188801</v>
@@ -38680,7 +38677,7 @@
       <c r="D853" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E853" s="92" t="s">
+      <c r="E853" s="44" t="s">
         <v>571</v>
       </c>
       <c r="F853" s="48" t="s">
@@ -38703,7 +38700,7 @@
         <v>105</v>
       </c>
       <c r="N853" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P853" s="6">
         <v>259.67534089930501</v>
@@ -38722,7 +38719,7 @@
       <c r="D854" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E854" s="92" t="s">
+      <c r="E854" s="44" t="s">
         <v>572</v>
       </c>
       <c r="F854" s="48" t="s">
@@ -38745,7 +38742,7 @@
         <v>105</v>
       </c>
       <c r="N854" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P854" s="6">
         <v>234.54020751345999</v>
@@ -38764,7 +38761,7 @@
       <c r="D855" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E855" s="92" t="s">
+      <c r="E855" s="44" t="s">
         <v>573</v>
       </c>
       <c r="F855" s="48" t="s">
@@ -38787,7 +38784,7 @@
         <v>105</v>
       </c>
       <c r="N855" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P855" s="6">
         <v>258.86453014492298</v>
@@ -38806,7 +38803,7 @@
       <c r="D856" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E856" s="92" t="s">
+      <c r="E856" s="44" t="s">
         <v>544</v>
       </c>
       <c r="F856" s="48" t="s">
@@ -38828,7 +38825,7 @@
         <v>105</v>
       </c>
       <c r="N856" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -38844,7 +38841,7 @@
       <c r="D857" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E857" s="92" t="s">
+      <c r="E857" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F857" s="48" t="s">
@@ -38866,7 +38863,7 @@
         <v>105</v>
       </c>
       <c r="N857" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -38882,7 +38879,7 @@
       <c r="D858" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E858" s="92" t="s">
+      <c r="E858" s="44" t="s">
         <v>549</v>
       </c>
       <c r="F858" s="48" t="s">
@@ -38904,7 +38901,7 @@
         <v>105</v>
       </c>
       <c r="N858" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -38939,7 +38936,7 @@
         <v>105</v>
       </c>
       <c r="N859" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -38955,7 +38952,7 @@
       <c r="D860" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E860" s="92" t="s">
+      <c r="E860" s="44" t="s">
         <v>544</v>
       </c>
       <c r="F860" s="48" t="s">
@@ -38977,7 +38974,7 @@
         <v>105</v>
       </c>
       <c r="N860" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -38993,7 +38990,7 @@
       <c r="D861" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E861" s="92" t="s">
+      <c r="E861" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F861" s="48" t="s">
@@ -39015,7 +39012,7 @@
         <v>105</v>
       </c>
       <c r="N861" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -39031,7 +39028,7 @@
       <c r="D862" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E862" s="92" t="s">
+      <c r="E862" s="44" t="s">
         <v>549</v>
       </c>
       <c r="F862" s="48" t="s">
@@ -39053,7 +39050,7 @@
         <v>105</v>
       </c>
       <c r="N862" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -39088,7 +39085,7 @@
         <v>105</v>
       </c>
       <c r="N863" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -39104,7 +39101,7 @@
       <c r="D864" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E864" s="92" t="s">
+      <c r="E864" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F864" s="48" t="s">
@@ -39126,10 +39123,10 @@
         <v>105</v>
       </c>
       <c r="N864" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="865" spans="1:14">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="865" spans="1:16">
       <c r="A865" s="47" t="s">
         <v>574</v>
       </c>
@@ -39161,10 +39158,10 @@
         <v>105</v>
       </c>
       <c r="N865" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="866" spans="1:14">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="866" spans="1:16">
       <c r="A866" t="s">
         <v>504</v>
       </c>
@@ -39177,7 +39174,7 @@
       <c r="D866" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E866" s="92" t="s">
+      <c r="E866" s="44" t="s">
         <v>541</v>
       </c>
       <c r="F866" s="48" t="s">
@@ -39187,25 +39184,29 @@
         <v>29</v>
       </c>
       <c r="H866" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I866" s="49">
+        <v>298</v>
+      </c>
+      <c r="J866" s="50">
+        <f>P866*1000</f>
+        <v>10648.793565683602</v>
+      </c>
+      <c r="L866" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M866" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N866" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I866" s="49">
-        <v>298</v>
-      </c>
-      <c r="J866" s="48">
+      <c r="P866" s="48">
         <v>10.648793565683601</v>
       </c>
-      <c r="L866" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M866" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N866" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="867" spans="1:14">
+    </row>
+    <row r="867" spans="1:16">
       <c r="A867" t="s">
         <v>503</v>
       </c>
@@ -39218,7 +39219,7 @@
       <c r="D867" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E867" s="92" t="s">
+      <c r="E867" s="44" t="s">
         <v>543</v>
       </c>
       <c r="F867" s="48" t="s">
@@ -39228,25 +39229,29 @@
         <v>29</v>
       </c>
       <c r="H867" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I867" s="49">
+        <v>298</v>
+      </c>
+      <c r="J867" s="50">
+        <f t="shared" ref="J867:J897" si="14">P867*1000</f>
+        <v>10817.6943699731</v>
+      </c>
+      <c r="L867" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M867" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N867" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I867" s="49">
-        <v>298</v>
-      </c>
-      <c r="J867" s="48">
+      <c r="P867" s="48">
         <v>10.817694369973101</v>
       </c>
-      <c r="L867" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M867" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N867" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="868" spans="1:14">
+    </row>
+    <row r="868" spans="1:16">
       <c r="A868" t="s">
         <v>502</v>
       </c>
@@ -39259,7 +39264,7 @@
       <c r="D868" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E868" s="92" t="s">
+      <c r="E868" s="44" t="s">
         <v>544</v>
       </c>
       <c r="F868" s="48" t="s">
@@ -39269,25 +39274,29 @@
         <v>29</v>
       </c>
       <c r="H868" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I868" s="49">
+        <v>298</v>
+      </c>
+      <c r="J868" s="50">
+        <f t="shared" si="14"/>
+        <v>11348.525469168901</v>
+      </c>
+      <c r="L868" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M868" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N868" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I868" s="49">
-        <v>298</v>
-      </c>
-      <c r="J868" s="48">
+      <c r="P868" s="48">
         <v>11.3485254691689</v>
       </c>
-      <c r="L868" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M868" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N868" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="869" spans="1:14">
+    </row>
+    <row r="869" spans="1:16">
       <c r="A869" t="s">
         <v>501</v>
       </c>
@@ -39300,7 +39309,7 @@
       <c r="D869" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E869" s="92" t="s">
+      <c r="E869" s="44" t="s">
         <v>545</v>
       </c>
       <c r="F869" s="48" t="s">
@@ -39310,25 +39319,29 @@
         <v>29</v>
       </c>
       <c r="H869" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I869" s="49">
+        <v>298</v>
+      </c>
+      <c r="J869" s="50">
+        <f t="shared" si="14"/>
+        <v>10938.337801608499</v>
+      </c>
+      <c r="L869" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M869" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N869" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I869" s="49">
-        <v>298</v>
-      </c>
-      <c r="J869" s="48">
+      <c r="P869" s="48">
         <v>10.938337801608499</v>
       </c>
-      <c r="L869" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M869" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N869" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="870" spans="1:14">
+    </row>
+    <row r="870" spans="1:16">
       <c r="A870" t="s">
         <v>500</v>
       </c>
@@ -39341,7 +39354,7 @@
       <c r="D870" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E870" s="92" t="s">
+      <c r="E870" s="44" t="s">
         <v>546</v>
       </c>
       <c r="F870" s="48" t="s">
@@ -39351,25 +39364,29 @@
         <v>29</v>
       </c>
       <c r="H870" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I870" s="49">
+        <v>298</v>
+      </c>
+      <c r="J870" s="50">
+        <f t="shared" si="14"/>
+        <v>11227.8820375335</v>
+      </c>
+      <c r="L870" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M870" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N870" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I870" s="49">
-        <v>298</v>
-      </c>
-      <c r="J870" s="48">
+      <c r="P870" s="48">
         <v>11.227882037533499</v>
       </c>
-      <c r="L870" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M870" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N870" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="871" spans="1:14">
+    </row>
+    <row r="871" spans="1:16">
       <c r="A871" t="s">
         <v>499</v>
       </c>
@@ -39382,7 +39399,7 @@
       <c r="D871" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E871" s="92" t="s">
+      <c r="E871" s="44" t="s">
         <v>547</v>
       </c>
       <c r="F871" s="48" t="s">
@@ -39392,25 +39409,29 @@
         <v>29</v>
       </c>
       <c r="H871" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I871" s="49">
+        <v>298</v>
+      </c>
+      <c r="J871" s="50">
+        <f t="shared" si="14"/>
+        <v>11798.927613940999</v>
+      </c>
+      <c r="L871" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M871" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N871" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I871" s="49">
-        <v>298</v>
-      </c>
-      <c r="J871" s="48">
+      <c r="P871" s="48">
         <v>11.798927613941</v>
       </c>
-      <c r="L871" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M871" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N871" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="872" spans="1:14">
+    </row>
+    <row r="872" spans="1:16">
       <c r="A872" t="s">
         <v>498</v>
       </c>
@@ -39423,7 +39444,7 @@
       <c r="D872" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E872" s="92" t="s">
+      <c r="E872" s="44" t="s">
         <v>548</v>
       </c>
       <c r="F872" s="48" t="s">
@@ -39433,25 +39454,29 @@
         <v>29</v>
       </c>
       <c r="H872" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I872" s="49">
+        <v>298</v>
+      </c>
+      <c r="J872" s="50">
+        <f t="shared" si="14"/>
+        <v>10278.820375335099</v>
+      </c>
+      <c r="L872" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M872" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N872" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I872" s="49">
-        <v>298</v>
-      </c>
-      <c r="J872" s="48">
+      <c r="P872" s="48">
         <v>10.2788203753351</v>
       </c>
-      <c r="L872" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M872" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N872" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="873" spans="1:14">
+    </row>
+    <row r="873" spans="1:16">
       <c r="A873" t="s">
         <v>497</v>
       </c>
@@ -39464,7 +39489,7 @@
       <c r="D873" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E873" s="92" t="s">
+      <c r="E873" s="44" t="s">
         <v>549</v>
       </c>
       <c r="F873" s="48" t="s">
@@ -39474,25 +39499,29 @@
         <v>29</v>
       </c>
       <c r="H873" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I873" s="49">
+        <v>298</v>
+      </c>
+      <c r="J873" s="50">
+        <f t="shared" si="14"/>
+        <v>10536.1930294906</v>
+      </c>
+      <c r="L873" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M873" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N873" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I873" s="49">
-        <v>298</v>
-      </c>
-      <c r="J873" s="48">
+      <c r="P873" s="48">
         <v>10.536193029490599</v>
       </c>
-      <c r="L873" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M873" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N873" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="874" spans="1:14">
+    </row>
+    <row r="874" spans="1:16">
       <c r="A874" t="s">
         <v>496</v>
       </c>
@@ -39505,7 +39534,7 @@
       <c r="D874" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E874" s="92" t="s">
+      <c r="E874" s="44" t="s">
         <v>550</v>
       </c>
       <c r="F874" s="48" t="s">
@@ -39515,25 +39544,29 @@
         <v>29</v>
       </c>
       <c r="H874" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I874" s="49">
+        <v>298</v>
+      </c>
+      <c r="J874" s="50">
+        <f t="shared" si="14"/>
+        <v>10512.0643431635</v>
+      </c>
+      <c r="L874" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M874" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N874" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I874" s="49">
-        <v>298</v>
-      </c>
-      <c r="J874" s="48">
+      <c r="P874" s="48">
         <v>10.5120643431635</v>
       </c>
-      <c r="L874" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M874" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N874" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="875" spans="1:14">
+    </row>
+    <row r="875" spans="1:16">
       <c r="A875" t="s">
         <v>495</v>
       </c>
@@ -39546,7 +39579,7 @@
       <c r="D875" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E875" s="92" t="s">
+      <c r="E875" s="44" t="s">
         <v>551</v>
       </c>
       <c r="F875" s="48" t="s">
@@ -39556,25 +39589,29 @@
         <v>29</v>
       </c>
       <c r="H875" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I875" s="49">
+        <v>298</v>
+      </c>
+      <c r="J875" s="50">
+        <f t="shared" si="14"/>
+        <v>10407.5067024128</v>
+      </c>
+      <c r="L875" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M875" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N875" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I875" s="49">
-        <v>298</v>
-      </c>
-      <c r="J875" s="48">
+      <c r="P875" s="48">
         <v>10.4075067024128</v>
       </c>
-      <c r="L875" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M875" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N875" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="876" spans="1:14">
+    </row>
+    <row r="876" spans="1:16">
       <c r="A876" t="s">
         <v>494</v>
       </c>
@@ -39587,7 +39624,7 @@
       <c r="D876" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E876" s="92" t="s">
+      <c r="E876" s="44" t="s">
         <v>552</v>
       </c>
       <c r="F876" s="48" t="s">
@@ -39597,25 +39634,29 @@
         <v>29</v>
       </c>
       <c r="H876" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I876" s="49">
+        <v>298</v>
+      </c>
+      <c r="J876" s="50">
+        <f t="shared" si="14"/>
+        <v>10616.6219839142</v>
+      </c>
+      <c r="L876" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M876" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N876" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I876" s="49">
-        <v>298</v>
-      </c>
-      <c r="J876" s="48">
+      <c r="P876" s="48">
         <v>10.6166219839142</v>
       </c>
-      <c r="L876" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M876" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N876" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="877" spans="1:14">
+    </row>
+    <row r="877" spans="1:16">
       <c r="A877" t="s">
         <v>493</v>
       </c>
@@ -39628,7 +39669,7 @@
       <c r="D877" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E877" s="92" t="s">
+      <c r="E877" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F877" s="48" t="s">
@@ -39638,25 +39679,29 @@
         <v>29</v>
       </c>
       <c r="H877" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I877" s="49">
+        <v>298</v>
+      </c>
+      <c r="J877" s="50">
+        <f t="shared" si="14"/>
+        <v>11099.195710455699</v>
+      </c>
+      <c r="L877" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M877" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N877" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I877" s="49">
-        <v>298</v>
-      </c>
-      <c r="J877" s="48">
+      <c r="P877" s="48">
         <v>11.0991957104557</v>
       </c>
-      <c r="L877" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M877" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N877" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="878" spans="1:14">
+    </row>
+    <row r="878" spans="1:16">
       <c r="A878" t="s">
         <v>492</v>
       </c>
@@ -39669,7 +39714,7 @@
       <c r="D878" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E878" s="92" t="s">
+      <c r="E878" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F878" s="48" t="s">
@@ -39679,25 +39724,29 @@
         <v>29</v>
       </c>
       <c r="H878" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I878" s="49">
+        <v>298</v>
+      </c>
+      <c r="J878" s="50">
+        <f t="shared" si="14"/>
+        <v>11131.367292225199</v>
+      </c>
+      <c r="L878" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M878" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N878" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I878" s="49">
-        <v>298</v>
-      </c>
-      <c r="J878" s="48">
+      <c r="P878" s="48">
         <v>11.1313672922252</v>
       </c>
-      <c r="L878" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M878" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N878" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="879" spans="1:14">
+    </row>
+    <row r="879" spans="1:16">
       <c r="A879" t="s">
         <v>491</v>
       </c>
@@ -39710,7 +39759,7 @@
       <c r="D879" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E879" s="92" t="s">
+      <c r="E879" s="44" t="s">
         <v>555</v>
       </c>
       <c r="F879" s="48" t="s">
@@ -39720,25 +39769,29 @@
         <v>29</v>
       </c>
       <c r="H879" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I879" s="49">
+        <v>298</v>
+      </c>
+      <c r="J879" s="50">
+        <f t="shared" si="14"/>
+        <v>11710.455764075001</v>
+      </c>
+      <c r="L879" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M879" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N879" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I879" s="49">
-        <v>298</v>
-      </c>
-      <c r="J879" s="48">
+      <c r="P879" s="48">
         <v>11.710455764075</v>
       </c>
-      <c r="L879" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M879" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N879" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="880" spans="1:14">
+    </row>
+    <row r="880" spans="1:16">
       <c r="A880" t="s">
         <v>490</v>
       </c>
@@ -39751,7 +39804,7 @@
       <c r="D880" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E880" s="92" t="s">
+      <c r="E880" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F880" s="48" t="s">
@@ -39761,25 +39814,29 @@
         <v>29</v>
       </c>
       <c r="H880" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I880" s="49">
+        <v>298</v>
+      </c>
+      <c r="J880" s="50">
+        <f t="shared" si="14"/>
+        <v>10085.790884718399</v>
+      </c>
+      <c r="L880" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M880" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N880" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I880" s="49">
-        <v>298</v>
-      </c>
-      <c r="J880" s="48">
+      <c r="P880" s="48">
         <v>10.085790884718399</v>
       </c>
-      <c r="L880" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M880" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N880" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="881" spans="1:14">
+    </row>
+    <row r="881" spans="1:16">
       <c r="A881" t="s">
         <v>489</v>
       </c>
@@ -39792,7 +39849,7 @@
       <c r="D881" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E881" s="92" t="s">
+      <c r="E881" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F881" s="48" t="s">
@@ -39802,25 +39859,29 @@
         <v>29</v>
       </c>
       <c r="H881" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I881" s="49">
+        <v>298</v>
+      </c>
+      <c r="J881" s="50">
+        <f t="shared" si="14"/>
+        <v>10536.1930294906</v>
+      </c>
+      <c r="L881" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M881" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N881" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I881" s="49">
-        <v>298</v>
-      </c>
-      <c r="J881" s="48">
+      <c r="P881" s="48">
         <v>10.536193029490599</v>
       </c>
-      <c r="L881" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M881" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N881" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="882" spans="1:14">
+    </row>
+    <row r="882" spans="1:16">
       <c r="A882" t="s">
         <v>488</v>
       </c>
@@ -39833,7 +39894,7 @@
       <c r="D882" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E882" s="92" t="s">
+      <c r="E882" s="44" t="s">
         <v>558</v>
       </c>
       <c r="F882" s="48" t="s">
@@ -39843,25 +39904,29 @@
         <v>29</v>
       </c>
       <c r="H882" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I882" s="49">
+        <v>298</v>
+      </c>
+      <c r="J882" s="50">
+        <f t="shared" si="14"/>
+        <v>10383.3780160857</v>
+      </c>
+      <c r="L882" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M882" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N882" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I882" s="49">
-        <v>298</v>
-      </c>
-      <c r="J882" s="48">
+      <c r="P882" s="48">
         <v>10.3833780160857</v>
       </c>
-      <c r="L882" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M882" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N882" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="883" spans="1:14">
+    </row>
+    <row r="883" spans="1:16">
       <c r="A883" t="s">
         <v>487</v>
       </c>
@@ -39874,7 +39939,7 @@
       <c r="D883" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E883" s="92" t="s">
+      <c r="E883" s="44" t="s">
         <v>559</v>
       </c>
       <c r="F883" s="48" t="s">
@@ -39884,25 +39949,29 @@
         <v>29</v>
       </c>
       <c r="H883" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I883" s="49">
+        <v>298</v>
+      </c>
+      <c r="J883" s="50">
+        <f t="shared" si="14"/>
+        <v>10487.9356568364</v>
+      </c>
+      <c r="L883" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M883" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N883" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I883" s="49">
-        <v>298</v>
-      </c>
-      <c r="J883" s="48">
+      <c r="P883" s="48">
         <v>10.487935656836401</v>
       </c>
-      <c r="L883" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M883" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N883" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="884" spans="1:14">
+    </row>
+    <row r="884" spans="1:16">
       <c r="A884" t="s">
         <v>486</v>
       </c>
@@ -39915,7 +39984,7 @@
       <c r="D884" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E884" s="92" t="s">
+      <c r="E884" s="44" t="s">
         <v>560</v>
       </c>
       <c r="F884" s="48" t="s">
@@ -39925,25 +39994,29 @@
         <v>29</v>
       </c>
       <c r="H884" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I884" s="49">
+        <v>298</v>
+      </c>
+      <c r="J884" s="50">
+        <f t="shared" si="14"/>
+        <v>10592.4932975871</v>
+      </c>
+      <c r="L884" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M884" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N884" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I884" s="49">
-        <v>298</v>
-      </c>
-      <c r="J884" s="48">
+      <c r="P884" s="48">
         <v>10.592493297587099</v>
       </c>
-      <c r="L884" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M884" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N884" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="885" spans="1:14">
+    </row>
+    <row r="885" spans="1:16">
       <c r="A885" t="s">
         <v>485</v>
       </c>
@@ -39956,7 +40029,7 @@
       <c r="D885" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E885" s="92" t="s">
+      <c r="E885" s="44" t="s">
         <v>561</v>
       </c>
       <c r="F885" s="48" t="s">
@@ -39966,25 +40039,29 @@
         <v>29</v>
       </c>
       <c r="H885" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I885" s="49">
+        <v>298</v>
+      </c>
+      <c r="J885" s="50">
+        <f t="shared" si="14"/>
+        <v>11083.109919570999</v>
+      </c>
+      <c r="L885" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M885" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N885" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I885" s="49">
-        <v>298</v>
-      </c>
-      <c r="J885" s="48">
+      <c r="P885" s="48">
         <v>11.083109919570999</v>
       </c>
-      <c r="L885" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M885" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N885" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="886" spans="1:14">
+    </row>
+    <row r="886" spans="1:16">
       <c r="A886" t="s">
         <v>484</v>
       </c>
@@ -39997,7 +40074,7 @@
       <c r="D886" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E886" s="92" t="s">
+      <c r="E886" s="44" t="s">
         <v>562</v>
       </c>
       <c r="F886" s="48" t="s">
@@ -40007,25 +40084,29 @@
         <v>29</v>
       </c>
       <c r="H886" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I886" s="49">
+        <v>298</v>
+      </c>
+      <c r="J886" s="50">
+        <f t="shared" si="14"/>
+        <v>11026.809651474499</v>
+      </c>
+      <c r="L886" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M886" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N886" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I886" s="49">
-        <v>298</v>
-      </c>
-      <c r="J886" s="48">
+      <c r="P886" s="48">
         <v>11.026809651474499</v>
       </c>
-      <c r="L886" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M886" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N886" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="887" spans="1:14">
+    </row>
+    <row r="887" spans="1:16">
       <c r="A887" t="s">
         <v>483</v>
       </c>
@@ -40038,7 +40119,7 @@
       <c r="D887" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E887" s="92" t="s">
+      <c r="E887" s="44" t="s">
         <v>563</v>
       </c>
       <c r="F887" s="48" t="s">
@@ -40048,25 +40129,29 @@
         <v>29</v>
       </c>
       <c r="H887" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I887" s="49">
+        <v>298</v>
+      </c>
+      <c r="J887" s="50">
+        <f t="shared" si="14"/>
+        <v>11525.4691689008</v>
+      </c>
+      <c r="L887" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M887" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N887" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I887" s="49">
-        <v>298</v>
-      </c>
-      <c r="J887" s="48">
+      <c r="P887" s="48">
         <v>11.5254691689008</v>
       </c>
-      <c r="L887" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M887" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N887" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="888" spans="1:14">
+    </row>
+    <row r="888" spans="1:16">
       <c r="A888" t="s">
         <v>482</v>
       </c>
@@ -40079,7 +40164,7 @@
       <c r="D888" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E888" s="92" t="s">
+      <c r="E888" s="44" t="s">
         <v>564</v>
       </c>
       <c r="F888" s="48" t="s">
@@ -40089,25 +40174,29 @@
         <v>29</v>
       </c>
       <c r="H888" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I888" s="49">
+        <v>298</v>
+      </c>
+      <c r="J888" s="50">
+        <f t="shared" si="14"/>
+        <v>10166.219839142001</v>
+      </c>
+      <c r="L888" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M888" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N888" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I888" s="49">
-        <v>298</v>
-      </c>
-      <c r="J888" s="48">
+      <c r="P888" s="48">
         <v>10.166219839142</v>
       </c>
-      <c r="L888" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M888" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N888" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="889" spans="1:14">
+    </row>
+    <row r="889" spans="1:16">
       <c r="A889" t="s">
         <v>481</v>
       </c>
@@ -40120,7 +40209,7 @@
       <c r="D889" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E889" s="92" t="s">
+      <c r="E889" s="44" t="s">
         <v>565</v>
       </c>
       <c r="F889" s="48" t="s">
@@ -40130,25 +40219,29 @@
         <v>29</v>
       </c>
       <c r="H889" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I889" s="49">
+        <v>298</v>
+      </c>
+      <c r="J889" s="50">
+        <f t="shared" si="14"/>
+        <v>10343.163538873901</v>
+      </c>
+      <c r="L889" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M889" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N889" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I889" s="49">
-        <v>298</v>
-      </c>
-      <c r="J889" s="48">
+      <c r="P889" s="48">
         <v>10.343163538873901</v>
       </c>
-      <c r="L889" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M889" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N889" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="890" spans="1:14">
+    </row>
+    <row r="890" spans="1:16">
       <c r="A890" t="s">
         <v>480</v>
       </c>
@@ -40161,7 +40254,7 @@
       <c r="D890" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E890" s="92" t="s">
+      <c r="E890" s="44" t="s">
         <v>566</v>
       </c>
       <c r="F890" s="48" t="s">
@@ -40171,25 +40264,29 @@
         <v>29</v>
       </c>
       <c r="H890" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I890" s="49">
+        <v>298</v>
+      </c>
+      <c r="J890" s="50">
+        <f t="shared" si="14"/>
+        <v>11380.697050938301</v>
+      </c>
+      <c r="L890" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M890" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N890" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I890" s="49">
-        <v>298</v>
-      </c>
-      <c r="J890" s="48">
+      <c r="P890" s="48">
         <v>11.3806970509383</v>
       </c>
-      <c r="L890" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M890" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N890" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="891" spans="1:14">
+    </row>
+    <row r="891" spans="1:16">
       <c r="A891" t="s">
         <v>479</v>
       </c>
@@ -40202,7 +40299,7 @@
       <c r="D891" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E891" s="92" t="s">
+      <c r="E891" s="44" t="s">
         <v>567</v>
       </c>
       <c r="F891" s="48" t="s">
@@ -40212,25 +40309,29 @@
         <v>29</v>
       </c>
       <c r="H891" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I891" s="49">
+        <v>298</v>
+      </c>
+      <c r="J891" s="50">
+        <f t="shared" si="14"/>
+        <v>11613.9410187667</v>
+      </c>
+      <c r="L891" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M891" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N891" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I891" s="49">
-        <v>298</v>
-      </c>
-      <c r="J891" s="48">
+      <c r="P891" s="48">
         <v>11.613941018766701</v>
       </c>
-      <c r="L891" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M891" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N891" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="892" spans="1:14">
+    </row>
+    <row r="892" spans="1:16">
       <c r="A892" t="s">
         <v>478</v>
       </c>
@@ -40243,7 +40344,7 @@
       <c r="D892" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E892" s="92" t="s">
+      <c r="E892" s="44" t="s">
         <v>568</v>
       </c>
       <c r="F892" s="48" t="s">
@@ -40253,25 +40354,29 @@
         <v>29</v>
       </c>
       <c r="H892" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I892" s="49">
+        <v>298</v>
+      </c>
+      <c r="J892" s="50">
+        <f t="shared" si="14"/>
+        <v>11847.184986595099</v>
+      </c>
+      <c r="L892" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M892" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N892" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I892" s="49">
-        <v>298</v>
-      </c>
-      <c r="J892" s="48">
+      <c r="P892" s="48">
         <v>11.847184986595099</v>
       </c>
-      <c r="L892" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M892" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N892" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="893" spans="1:14">
+    </row>
+    <row r="893" spans="1:16">
       <c r="A893" t="s">
         <v>477</v>
       </c>
@@ -40284,7 +40389,7 @@
       <c r="D893" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E893" s="92" t="s">
+      <c r="E893" s="44" t="s">
         <v>569</v>
       </c>
       <c r="F893" s="48" t="s">
@@ -40294,25 +40399,29 @@
         <v>29</v>
       </c>
       <c r="H893" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I893" s="49">
+        <v>298</v>
+      </c>
+      <c r="J893" s="50">
+        <f t="shared" si="14"/>
+        <v>12353.8873994638</v>
+      </c>
+      <c r="L893" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M893" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N893" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I893" s="49">
-        <v>298</v>
-      </c>
-      <c r="J893" s="48">
+      <c r="P893" s="48">
         <v>12.353887399463799</v>
       </c>
-      <c r="L893" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M893" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N893" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="894" spans="1:14">
+    </row>
+    <row r="894" spans="1:16">
       <c r="A894" t="s">
         <v>476</v>
       </c>
@@ -40325,7 +40434,7 @@
       <c r="D894" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E894" s="92" t="s">
+      <c r="E894" s="44" t="s">
         <v>570</v>
       </c>
       <c r="F894" s="48" t="s">
@@ -40335,25 +40444,29 @@
         <v>29</v>
       </c>
       <c r="H894" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I894" s="49">
+        <v>298</v>
+      </c>
+      <c r="J894" s="50">
+        <f t="shared" si="14"/>
+        <v>12104.557640750601</v>
+      </c>
+      <c r="L894" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M894" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N894" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I894" s="49">
-        <v>298</v>
-      </c>
-      <c r="J894" s="48">
+      <c r="P894" s="48">
         <v>12.104557640750601</v>
       </c>
-      <c r="L894" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M894" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N894" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="895" spans="1:14">
+    </row>
+    <row r="895" spans="1:16">
       <c r="A895" t="s">
         <v>475</v>
       </c>
@@ -40366,7 +40479,7 @@
       <c r="D895" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E895" s="92" t="s">
+      <c r="E895" s="44" t="s">
         <v>571</v>
       </c>
       <c r="F895" s="48" t="s">
@@ -40376,25 +40489,29 @@
         <v>29</v>
       </c>
       <c r="H895" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I895" s="49">
+        <v>298</v>
+      </c>
+      <c r="J895" s="50">
+        <f t="shared" si="14"/>
+        <v>12772.1179624664</v>
+      </c>
+      <c r="L895" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M895" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N895" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I895" s="49">
-        <v>298</v>
-      </c>
-      <c r="J895" s="48">
+      <c r="P895" s="48">
         <v>12.7721179624664</v>
       </c>
-      <c r="L895" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M895" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N895" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="896" spans="1:14">
+    </row>
+    <row r="896" spans="1:16">
       <c r="A896" t="s">
         <v>474</v>
       </c>
@@ -40407,7 +40524,7 @@
       <c r="D896" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E896" s="92" t="s">
+      <c r="E896" s="44" t="s">
         <v>572</v>
       </c>
       <c r="F896" s="48" t="s">
@@ -40417,25 +40534,29 @@
         <v>29</v>
       </c>
       <c r="H896" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I896" s="49">
+        <v>298</v>
+      </c>
+      <c r="J896" s="50">
+        <f t="shared" si="14"/>
+        <v>11509.383378016</v>
+      </c>
+      <c r="L896" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M896" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N896" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I896" s="49">
-        <v>298</v>
-      </c>
-      <c r="J896" s="48">
+      <c r="P896" s="48">
         <v>11.509383378016</v>
       </c>
-      <c r="L896" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M896" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N896" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="897" spans="1:14">
+    </row>
+    <row r="897" spans="1:16">
       <c r="A897" t="s">
         <v>473</v>
       </c>
@@ -40448,7 +40569,7 @@
       <c r="D897" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E897" s="92" t="s">
+      <c r="E897" s="44" t="s">
         <v>573</v>
       </c>
       <c r="F897" s="48" t="s">
@@ -40458,31 +40579,30 @@
         <v>29</v>
       </c>
       <c r="H897" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="I897" s="49">
+        <v>298</v>
+      </c>
+      <c r="J897" s="50">
+        <f t="shared" si="14"/>
+        <v>11477.2117962466</v>
+      </c>
+      <c r="L897" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M897" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="N897" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="I897" s="49">
-        <v>298</v>
-      </c>
-      <c r="J897" s="48">
+      <c r="P897" s="48">
         <v>11.4772117962466</v>
-      </c>
-      <c r="L897" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="M897" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="N897" s="51" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -40497,6 +40617,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
